--- a/golfstats_FINAL_Excel.xlsx
+++ b/golfstats_FINAL_Excel.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\repos\vu-virt-data-pt-12-2020-u-b\red-team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE9E8A1-2A13-4037-84CE-B16A1962AE8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523C8146-3E5E-48B9-9AF3-ED98D42C3E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3900" windowWidth="19440" windowHeight="15000" tabRatio="507" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="golfstats_FINAL_Excel" sheetId="1" r:id="rId1"/>
-    <sheet name="jupyter_lists" sheetId="2" r:id="rId2"/>
+    <sheet name="jupyter_lists_joins" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">golfstats_FINAL_Excel!$A$1:$P$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">golfstats_FINAL_Excel!$A$1:$Q$116</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="572">
   <si>
     <t>Year</t>
   </si>
@@ -1737,6 +1737,9 @@
   </si>
   <si>
     <t>Code-friendly Stat Name_Year</t>
+  </si>
+  <si>
+    <t>Code_for_Rename</t>
   </si>
 </sst>
 </file>
@@ -2585,11 +2588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2607,10 +2610,11 @@
     <col min="14" max="14" width="24.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="20.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.54296875" customWidth="1"/>
+    <col min="18" max="18" width="101.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
@@ -2662,13 +2666,16 @@
       <c r="Q1" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>"df"&amp;A2</f>
+        <f t="shared" ref="B2:B33" si="0">"df"&amp;A2</f>
         <v>df1</v>
       </c>
       <c r="C2" t="str">
@@ -2710,17 +2717,25 @@
         <f>L2</f>
         <v>AVERAGE</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q6" si="1">I2&amp;"_"&amp;P2</f>
+        <v>SG_off_tee_2021_AVERAGE</v>
+      </c>
+      <c r="R2" t="str">
+        <f>B2&amp;"="&amp;D2&amp;"[["&amp;"'"&amp;P2&amp;"']].rename(columns={'"&amp;P2&amp;"': '"&amp;Q2&amp;"'})"</f>
+        <v>df1=dataframe_2021[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2021_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>"df"&amp;A3</f>
+        <f t="shared" si="0"/>
         <v>df2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">B3&amp;" = "&amp;"[]"</f>
+        <f t="shared" ref="C3:C66" si="2">B3&amp;" = "&amp;"[]"</f>
         <v>df2 = []</v>
       </c>
       <c r="D3" t="s">
@@ -2745,7 +2760,7 @@
         <v>13</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K50" si="1">"'"&amp;J3&amp;"',"</f>
+        <f t="shared" ref="K3:K50" si="3">"'"&amp;J3&amp;"',"</f>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02674.y2021.html',</v>
       </c>
       <c r="L3" t="s">
@@ -2761,20 +2776,28 @@
         <v>414</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="2">L3</f>
+        <f t="shared" ref="P3:P66" si="4">L3</f>
         <v>AVERAGE</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q3" t="str">
+        <f t="shared" si="1"/>
+        <v>SG_tee_green_2021_AVERAGE</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R66" si="5">B3&amp;"="&amp;D3&amp;"[["&amp;"'"&amp;P3&amp;"']].rename(columns={'"&amp;P3&amp;"': '"&amp;Q3&amp;"'})"</f>
+        <v>df2=dataframe_2021[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2021_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>"df"&amp;A4</f>
+        <f t="shared" si="0"/>
         <v>df3</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df3 = []</v>
       </c>
       <c r="D4" t="s">
@@ -2799,27 +2822,35 @@
         <v>17</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.101.y2021.html',</v>
       </c>
       <c r="L4" t="s">
         <v>415</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG.</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>driving_dist_2021_AVG.</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="5"/>
+        <v>df3=dataframe_2021[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2021_AVG.'})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>"df"&amp;A5</f>
+        <f t="shared" si="0"/>
         <v>df4</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df4 = []</v>
       </c>
       <c r="D5" t="s">
@@ -2844,7 +2875,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02341.y2021.html',</v>
       </c>
       <c r="L5" t="s">
@@ -2857,20 +2888,28 @@
         <v>418</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG (%)</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>pct_ydg_tee_2021_AVG (%)</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="5"/>
+        <v>df4=dataframe_2021[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2021_AVG (%)'})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>"df"&amp;A6</f>
+        <f t="shared" si="0"/>
         <v>df5</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df5 = []</v>
       </c>
       <c r="D6" t="s">
@@ -2895,7 +2934,7 @@
         <v>25</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.496.y2021.html',</v>
       </c>
       <c r="L6" t="s">
@@ -2908,20 +2947,28 @@
         <v>421</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>driving_320+_2021_%</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="5"/>
+        <v>df5=dataframe_2021[4][['%']].rename(columns={'%': 'driving_320+_2021_%'})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>"df"&amp;A7</f>
+        <f t="shared" si="0"/>
         <v>df6</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df6 = []</v>
       </c>
       <c r="D7" t="s">
@@ -2946,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02568.y2021.html',</v>
       </c>
       <c r="L7" t="s">
@@ -2956,20 +3003,28 @@
         <v>422</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7:Q70" si="6">I7&amp;"_"&amp;P7</f>
+        <v>SG_approach_green_2021_AVERAGE</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="5"/>
+        <v>df6=dataframe_2021[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2021_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>"df"&amp;A8</f>
+        <f t="shared" si="0"/>
         <v>df7</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df7 = []</v>
       </c>
       <c r="D8" t="s">
@@ -2994,7 +3049,7 @@
         <v>34</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.103.y2021.html',</v>
       </c>
       <c r="L8" t="s">
@@ -3004,20 +3059,28 @@
         <v>423</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>GIR_pct_2021_%</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="5"/>
+        <v>df7=dataframe_2021[6][['%']].rename(columns={'%': 'GIR_pct_2021_%'})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>"df"&amp;A9</f>
+        <f t="shared" si="0"/>
         <v>df8</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df8 = []</v>
       </c>
       <c r="D9" t="s">
@@ -3042,7 +3105,7 @@
         <v>38</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02437.y2021.html',</v>
       </c>
       <c r="L9" t="s">
@@ -3052,20 +3115,28 @@
         <v>424</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>GOFIR_pct_2021_%</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="5"/>
+        <v>df8=dataframe_2021[7][['%']].rename(columns={'%': 'GOFIR_pct_2021_%'})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>"df"&amp;A10</f>
+        <f t="shared" si="0"/>
         <v>df9</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df9 = []</v>
       </c>
       <c r="D10" t="s">
@@ -3090,7 +3161,7 @@
         <v>42</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.190.y2021.html',</v>
       </c>
       <c r="L10" t="s">
@@ -3100,20 +3171,28 @@
         <v>423</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>GIR_pct_fwy_2021_%</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="5"/>
+        <v>df9=dataframe_2021[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2021_%'})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>"df"&amp;A11</f>
+        <f t="shared" si="0"/>
         <v>df10</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df10 = []</v>
       </c>
       <c r="D11" t="s">
@@ -3138,7 +3217,7 @@
         <v>46</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.199.y2021.html',</v>
       </c>
       <c r="L11" t="s">
@@ -3148,20 +3227,28 @@
         <v>423</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>GIR_pct_not_fwy_2021_%</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="5"/>
+        <v>df10=dataframe_2021[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2021_%'})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>"df"&amp;A12</f>
+        <f t="shared" si="0"/>
         <v>df11</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df11 = []</v>
       </c>
       <c r="D12" t="s">
@@ -3186,7 +3273,7 @@
         <v>50</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.431.y2021.html',</v>
       </c>
       <c r="L12" t="s">
@@ -3199,20 +3286,28 @@
         <v>427</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>fwy_prox_2021_AVG</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="5"/>
+        <v>df11=dataframe_2021[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2021_AVG'})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>"df"&amp;A13</f>
+        <f t="shared" si="0"/>
         <v>df12</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df12 = []</v>
       </c>
       <c r="D13" t="s">
@@ -3237,7 +3332,7 @@
         <v>54</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.437.y2021.html',</v>
       </c>
       <c r="L13" t="s">
@@ -3253,20 +3348,28 @@
         <v>427</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>rough_prox_2021_AVG</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="5"/>
+        <v>df12=dataframe_2021[11][['AVG']].rename(columns={'AVG': 'rough_prox_2021_AVG'})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>"df"&amp;A14</f>
+        <f t="shared" si="0"/>
         <v>df13</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df13 = []</v>
       </c>
       <c r="D14" t="s">
@@ -3291,7 +3394,7 @@
         <v>59</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02569.y2021.html',</v>
       </c>
       <c r="L14" t="s">
@@ -3301,20 +3404,28 @@
         <v>429</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>SG_ATG_2021_AVERAGE</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="5"/>
+        <v>df13=dataframe_2021[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2021_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>"df"&amp;A15</f>
+        <f t="shared" si="0"/>
         <v>df14</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df14 = []</v>
       </c>
       <c r="D15" t="s">
@@ -3339,7 +3450,7 @@
         <v>63</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.111.y2021.html',</v>
       </c>
       <c r="L15" t="s">
@@ -3352,20 +3463,28 @@
         <v>431</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>pct_sand_save_2021_%</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="5"/>
+        <v>df14=dataframe_2021[13][['%']].rename(columns={'%': 'pct_sand_save_2021_%'})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>"df"&amp;A16</f>
+        <f t="shared" si="0"/>
         <v>df15</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df15 = []</v>
       </c>
       <c r="D16" t="s">
@@ -3390,7 +3509,7 @@
         <v>67</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.130.y2021.html',</v>
       </c>
       <c r="L16" t="s">
@@ -3403,20 +3522,28 @@
         <v>433</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>scrambling_2021_%</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="5"/>
+        <v>df15=dataframe_2021[14][['%']].rename(columns={'%': 'scrambling_2021_%'})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>"df"&amp;A17</f>
+        <f t="shared" si="0"/>
         <v>df16</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df16 = []</v>
       </c>
       <c r="D17" t="s">
@@ -3441,7 +3568,7 @@
         <v>72</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02564.y2021.html',</v>
       </c>
       <c r="L17" t="s">
@@ -3451,20 +3578,28 @@
         <v>434</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>SG_putt_2021_AVERAGE</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="5"/>
+        <v>df16=dataframe_2021[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2021_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>"df"&amp;A18</f>
+        <f t="shared" si="0"/>
         <v>df17</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df17 = []</v>
       </c>
       <c r="D18" t="s">
@@ -3489,7 +3624,7 @@
         <v>76</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.413.y2021.html',</v>
       </c>
       <c r="L18" t="s">
@@ -3502,20 +3637,28 @@
         <v>437</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>pct_one_putt_2021_%</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="5"/>
+        <v>df17=dataframe_2021[16][['%']].rename(columns={'%': 'pct_one_putt_2021_%'})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>"df"&amp;A19</f>
+        <f t="shared" si="0"/>
         <v>df18</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df18 = []</v>
       </c>
       <c r="D19" t="s">
@@ -3540,7 +3683,7 @@
         <v>80</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.426.y2021.html',</v>
       </c>
       <c r="L19" t="s">
@@ -3553,20 +3696,28 @@
         <v>439</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>pct_three_putt_avoid_2021_%</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="5"/>
+        <v>df18=dataframe_2021[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2021_%'})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>"df"&amp;A20</f>
+        <f t="shared" si="0"/>
         <v>df19</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df19 = []</v>
       </c>
       <c r="D20" t="s">
@@ -3591,7 +3742,7 @@
         <v>84</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.104.y2021.html',</v>
       </c>
       <c r="L20" t="s">
@@ -3607,20 +3758,28 @@
         <v>441</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>putt_avg_2021_AVG</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="5"/>
+        <v>df19=dataframe_2021[18][['AVG']].rename(columns={'AVG': 'putt_avg_2021_AVG'})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>"df"&amp;A21</f>
+        <f t="shared" si="0"/>
         <v>df20</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df20 = []</v>
       </c>
       <c r="D21" t="s">
@@ -3645,7 +3804,7 @@
         <v>88</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.119.y2021.html',</v>
       </c>
       <c r="L21" t="s">
@@ -3658,20 +3817,28 @@
         <v>443</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>putts_per_rd_2021_AVG</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="5"/>
+        <v>df20=dataframe_2021[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2021_AVG'})</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>"df"&amp;A22</f>
+        <f t="shared" si="0"/>
         <v>df21</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df21 = []</v>
       </c>
       <c r="D22" t="s">
@@ -3696,7 +3863,7 @@
         <v>93</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02414.y2021.html',</v>
       </c>
       <c r="L22" t="s">
@@ -3709,20 +3876,28 @@
         <v>446</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>% MAKES BOGEY</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>bogey_avoid_2021_% MAKES BOGEY</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="5"/>
+        <v>df21=dataframe_2021[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2021_% MAKES BOGEY'})</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>"df"&amp;A23</f>
+        <f t="shared" si="0"/>
         <v>df22</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df22 = []</v>
       </c>
       <c r="D23" t="s">
@@ -3747,7 +3922,7 @@
         <v>97</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02415.y2021.html',</v>
       </c>
       <c r="L23" t="s">
@@ -3760,20 +3935,28 @@
         <v>449</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BIRDIE TO BOGEY RATIO</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q23" t="str">
+        <f t="shared" si="6"/>
+        <v>btb_ratio_2021_BIRDIE TO BOGEY RATIO</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="5"/>
+        <v>df22=dataframe_2021[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2021_BIRDIE TO BOGEY RATIO'})</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>"df"&amp;A24</f>
+        <f t="shared" si="0"/>
         <v>df23</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df23 = []</v>
       </c>
       <c r="D24" t="s">
@@ -3798,7 +3981,7 @@
         <v>102</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.109.y2021.html',</v>
       </c>
       <c r="L24" t="s">
@@ -3811,20 +3994,28 @@
         <v>451</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="2"/>
-        <v>EVENTS</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+        <f>M24</f>
+        <v>MONEY</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="6"/>
+        <v>money_2021_MONEY</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="5"/>
+        <v>df23=dataframe_2021[22][['MONEY']].rename(columns={'MONEY': 'money_2021_MONEY'})</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>"df"&amp;A25</f>
+        <f t="shared" si="0"/>
         <v>df24</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df24 = []</v>
       </c>
       <c r="D25" t="s">
@@ -3849,7 +4040,7 @@
         <v>104</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02567.y2020.html',</v>
       </c>
       <c r="L25" t="s">
@@ -3859,20 +4050,28 @@
         <v>411</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q25" t="str">
+        <f t="shared" si="6"/>
+        <v>SG_off_tee_2020_AVERAGE</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="5"/>
+        <v>df24=dataframe_2020[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2020_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>"df"&amp;A26</f>
+        <f t="shared" si="0"/>
         <v>df25</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df25 = []</v>
       </c>
       <c r="D26" t="s">
@@ -3897,7 +4096,7 @@
         <v>106</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02674.y2020.html',</v>
       </c>
       <c r="L26" t="s">
@@ -3913,24 +4112,28 @@
         <v>414</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q26" t="str">
-        <f>I26&amp;"_"&amp;P26</f>
+        <f t="shared" si="6"/>
         <v>SG_tee_green_2020_AVERAGE</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" t="str">
+        <f t="shared" si="5"/>
+        <v>df25=dataframe_2020[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2020_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>"df"&amp;A27</f>
+        <f t="shared" si="0"/>
         <v>df26</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df26 = []</v>
       </c>
       <c r="D27" t="s">
@@ -3955,31 +4158,35 @@
         <v>108</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.101.y2020.html',</v>
       </c>
       <c r="L27" t="s">
         <v>415</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG.</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" ref="Q27:Q90" si="3">I27&amp;"_"&amp;P27</f>
+        <f t="shared" si="6"/>
         <v>driving_dist_2020_AVG.</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27" t="str">
+        <f t="shared" si="5"/>
+        <v>df26=dataframe_2020[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2020_AVG.'})</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>"df"&amp;A28</f>
+        <f t="shared" si="0"/>
         <v>df27</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df27 = []</v>
       </c>
       <c r="D28" t="s">
@@ -4004,7 +4211,7 @@
         <v>110</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02341.y2020.html',</v>
       </c>
       <c r="L28" t="s">
@@ -4017,24 +4224,28 @@
         <v>418</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG (%)</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_ydg_tee_2020_AVG (%)</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" t="str">
+        <f t="shared" si="5"/>
+        <v>df27=dataframe_2020[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2020_AVG (%)'})</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>"df"&amp;A29</f>
+        <f t="shared" si="0"/>
         <v>df28</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df28 = []</v>
       </c>
       <c r="D29" t="s">
@@ -4059,7 +4270,7 @@
         <v>112</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.496.y2020.html',</v>
       </c>
       <c r="L29" t="s">
@@ -4072,24 +4283,28 @@
         <v>421</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>driving_320+_2020_%</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29" t="str">
+        <f t="shared" si="5"/>
+        <v>df28=dataframe_2020[4][['%']].rename(columns={'%': 'driving_320+_2020_%'})</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <f>"df"&amp;A30</f>
+        <f t="shared" si="0"/>
         <v>df29</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df29 = []</v>
       </c>
       <c r="D30" t="s">
@@ -4114,7 +4329,7 @@
         <v>114</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02568.y2020.html',</v>
       </c>
       <c r="L30" t="s">
@@ -4124,24 +4339,28 @@
         <v>422</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_approach_green_2020_AVERAGE</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30" t="str">
+        <f t="shared" si="5"/>
+        <v>df29=dataframe_2020[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2020_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <f>"df"&amp;A31</f>
+        <f t="shared" si="0"/>
         <v>df30</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df30 = []</v>
       </c>
       <c r="D31" t="s">
@@ -4166,7 +4385,7 @@
         <v>116</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.103.y2020.html',</v>
       </c>
       <c r="L31" t="s">
@@ -4176,24 +4395,28 @@
         <v>423</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GIR_pct_2020_%</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31" t="str">
+        <f t="shared" si="5"/>
+        <v>df30=dataframe_2020[6][['%']].rename(columns={'%': 'GIR_pct_2020_%'})</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <f>"df"&amp;A32</f>
+        <f t="shared" si="0"/>
         <v>df31</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df31 = []</v>
       </c>
       <c r="D32" t="s">
@@ -4218,7 +4441,7 @@
         <v>118</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02437.y2020.html',</v>
       </c>
       <c r="L32" t="s">
@@ -4228,24 +4451,28 @@
         <v>424</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GOFIR_pct_2020_%</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R32" t="str">
+        <f t="shared" si="5"/>
+        <v>df31=dataframe_2020[7][['%']].rename(columns={'%': 'GOFIR_pct_2020_%'})</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <f>"df"&amp;A33</f>
+        <f t="shared" si="0"/>
         <v>df32</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df32 = []</v>
       </c>
       <c r="D33" t="s">
@@ -4270,7 +4497,7 @@
         <v>120</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.190.y2020.html',</v>
       </c>
       <c r="L33" t="s">
@@ -4280,24 +4507,28 @@
         <v>423</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GIR_pct_fwy_2020_%</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R33" t="str">
+        <f t="shared" si="5"/>
+        <v>df32=dataframe_2020[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2020_%'})</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <f>"df"&amp;A34</f>
+        <f t="shared" ref="B34:B65" si="7">"df"&amp;A34</f>
         <v>df33</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df33 = []</v>
       </c>
       <c r="D34" t="s">
@@ -4322,7 +4553,7 @@
         <v>122</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.199.y2020.html',</v>
       </c>
       <c r="L34" t="s">
@@ -4332,24 +4563,28 @@
         <v>423</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GIR_pct_not_fwy_2020_%</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R34" t="str">
+        <f t="shared" si="5"/>
+        <v>df33=dataframe_2020[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2020_%'})</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <f>"df"&amp;A35</f>
+        <f t="shared" si="7"/>
         <v>df34</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df34 = []</v>
       </c>
       <c r="D35" t="s">
@@ -4374,7 +4609,7 @@
         <v>124</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.431.y2020.html',</v>
       </c>
       <c r="L35" t="s">
@@ -4387,24 +4622,28 @@
         <v>427</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>fwy_prox_2020_AVG</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R35" t="str">
+        <f t="shared" si="5"/>
+        <v>df34=dataframe_2020[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2020_AVG'})</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <f>"df"&amp;A36</f>
+        <f t="shared" si="7"/>
         <v>df35</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df35 = []</v>
       </c>
       <c r="D36" t="s">
@@ -4429,7 +4668,7 @@
         <v>126</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.437.y2020.html',</v>
       </c>
       <c r="L36" t="s">
@@ -4445,24 +4684,28 @@
         <v>427</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>rough_prox_2020_AVG</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R36" t="str">
+        <f t="shared" si="5"/>
+        <v>df35=dataframe_2020[11][['AVG']].rename(columns={'AVG': 'rough_prox_2020_AVG'})</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <f>"df"&amp;A37</f>
+        <f t="shared" si="7"/>
         <v>df36</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df36 = []</v>
       </c>
       <c r="D37" t="s">
@@ -4487,7 +4730,7 @@
         <v>128</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02569.y2020.html',</v>
       </c>
       <c r="L37" t="s">
@@ -4497,24 +4740,28 @@
         <v>429</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_ATG_2020_AVERAGE</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R37" t="str">
+        <f t="shared" si="5"/>
+        <v>df36=dataframe_2020[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2020_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <f>"df"&amp;A38</f>
+        <f t="shared" si="7"/>
         <v>df37</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df37 = []</v>
       </c>
       <c r="D38" t="s">
@@ -4539,7 +4786,7 @@
         <v>130</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.111.y2020.html',</v>
       </c>
       <c r="L38" t="s">
@@ -4552,24 +4799,28 @@
         <v>431</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_sand_save_2020_%</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R38" t="str">
+        <f t="shared" si="5"/>
+        <v>df37=dataframe_2020[13][['%']].rename(columns={'%': 'pct_sand_save_2020_%'})</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <f>"df"&amp;A39</f>
+        <f t="shared" si="7"/>
         <v>df38</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df38 = []</v>
       </c>
       <c r="D39" t="s">
@@ -4594,7 +4845,7 @@
         <v>132</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.130.y2020.html',</v>
       </c>
       <c r="L39" t="s">
@@ -4607,24 +4858,28 @@
         <v>433</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>scrambling_2020_%</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R39" t="str">
+        <f t="shared" si="5"/>
+        <v>df38=dataframe_2020[14][['%']].rename(columns={'%': 'scrambling_2020_%'})</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <f>"df"&amp;A40</f>
+        <f t="shared" si="7"/>
         <v>df39</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df39 = []</v>
       </c>
       <c r="D40" t="s">
@@ -4649,7 +4904,7 @@
         <v>134</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02564.y2020.html',</v>
       </c>
       <c r="L40" t="s">
@@ -4659,24 +4914,28 @@
         <v>434</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_putt_2020_AVERAGE</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R40" t="str">
+        <f t="shared" si="5"/>
+        <v>df39=dataframe_2020[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2020_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <f>"df"&amp;A41</f>
+        <f t="shared" si="7"/>
         <v>df40</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df40 = []</v>
       </c>
       <c r="D41" t="s">
@@ -4701,7 +4960,7 @@
         <v>136</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.413.y2020.html',</v>
       </c>
       <c r="L41" t="s">
@@ -4714,24 +4973,28 @@
         <v>437</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_one_putt_2020_%</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41" t="str">
+        <f t="shared" si="5"/>
+        <v>df40=dataframe_2020[16][['%']].rename(columns={'%': 'pct_one_putt_2020_%'})</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="str">
-        <f>"df"&amp;A42</f>
+        <f t="shared" si="7"/>
         <v>df41</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df41 = []</v>
       </c>
       <c r="D42" t="s">
@@ -4756,7 +5019,7 @@
         <v>138</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.426.y2020.html',</v>
       </c>
       <c r="L42" t="s">
@@ -4769,24 +5032,28 @@
         <v>439</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_three_putt_avoid_2020_%</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R42" t="str">
+        <f t="shared" si="5"/>
+        <v>df41=dataframe_2020[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2020_%'})</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <f>"df"&amp;A43</f>
+        <f t="shared" si="7"/>
         <v>df42</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df42 = []</v>
       </c>
       <c r="D43" t="s">
@@ -4811,7 +5078,7 @@
         <v>140</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.104.y2020.html',</v>
       </c>
       <c r="L43" t="s">
@@ -4827,24 +5094,28 @@
         <v>441</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>putt_avg_2020_AVG</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R43" t="str">
+        <f t="shared" si="5"/>
+        <v>df42=dataframe_2020[18][['AVG']].rename(columns={'AVG': 'putt_avg_2020_AVG'})</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="str">
-        <f>"df"&amp;A44</f>
+        <f t="shared" si="7"/>
         <v>df43</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df43 = []</v>
       </c>
       <c r="D44" t="s">
@@ -4869,7 +5140,7 @@
         <v>142</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.119.y2020.html',</v>
       </c>
       <c r="L44" t="s">
@@ -4882,24 +5153,28 @@
         <v>443</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>putts_per_rd_2020_AVG</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R44" t="str">
+        <f t="shared" si="5"/>
+        <v>df43=dataframe_2020[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2020_AVG'})</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="str">
-        <f>"df"&amp;A45</f>
+        <f t="shared" si="7"/>
         <v>df44</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df44 = []</v>
       </c>
       <c r="D45" t="s">
@@ -4924,7 +5199,7 @@
         <v>144</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02414.y2020.html',</v>
       </c>
       <c r="L45" t="s">
@@ -4937,24 +5212,28 @@
         <v>446</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>% MAKES BOGEY</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>bogey_avoid_2020_% MAKES BOGEY</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R45" t="str">
+        <f t="shared" si="5"/>
+        <v>df44=dataframe_2020[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2020_% MAKES BOGEY'})</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="str">
-        <f>"df"&amp;A46</f>
+        <f t="shared" si="7"/>
         <v>df45</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df45 = []</v>
       </c>
       <c r="D46" t="s">
@@ -4979,7 +5258,7 @@
         <v>146</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02415.y2020.html',</v>
       </c>
       <c r="L46" t="s">
@@ -4992,24 +5271,28 @@
         <v>449</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>BIRDIE TO BOGEY RATIO</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>btb_ratio_2020_BIRDIE TO BOGEY RATIO</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R46" t="str">
+        <f t="shared" si="5"/>
+        <v>df45=dataframe_2020[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2020_BIRDIE TO BOGEY RATIO'})</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="str">
-        <f>"df"&amp;A47</f>
+        <f t="shared" si="7"/>
         <v>df46</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df46 = []</v>
       </c>
       <c r="D47" t="s">
@@ -5034,7 +5317,7 @@
         <v>148</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.109.y2020.html',</v>
       </c>
       <c r="L47" t="s">
@@ -5047,24 +5330,28 @@
         <v>451</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="2"/>
-        <v>EVENTS</v>
+        <f>M47</f>
+        <v>MONEY</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="3"/>
-        <v>money_2020_EVENTS</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>money_2020_MONEY</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="5"/>
+        <v>df46=dataframe_2020[22][['MONEY']].rename(columns={'MONEY': 'money_2020_MONEY'})</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="str">
-        <f>"df"&amp;A48</f>
+        <f t="shared" si="7"/>
         <v>df47</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df47 = []</v>
       </c>
       <c r="D48" t="s">
@@ -5089,7 +5376,7 @@
         <v>150</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02567.y2019.html',</v>
       </c>
       <c r="L48" t="s">
@@ -5099,24 +5386,28 @@
         <v>411</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_off_tee_2019_AVERAGE</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R48" t="str">
+        <f t="shared" si="5"/>
+        <v>df47=dataframe_2019[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2019_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="str">
-        <f>"df"&amp;A49</f>
+        <f t="shared" si="7"/>
         <v>df48</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df48 = []</v>
       </c>
       <c r="D49" t="s">
@@ -5141,7 +5432,7 @@
         <v>152</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02674.y2019.html',</v>
       </c>
       <c r="L49" t="s">
@@ -5157,24 +5448,28 @@
         <v>414</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_tee_green_2019_AVERAGE</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R49" t="str">
+        <f t="shared" si="5"/>
+        <v>df48=dataframe_2019[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2019_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="str">
-        <f>"df"&amp;A50</f>
+        <f t="shared" si="7"/>
         <v>df49</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df49 = []</v>
       </c>
       <c r="D50" t="s">
@@ -5199,31 +5494,35 @@
         <v>154</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.101.y2019.html',</v>
       </c>
       <c r="L50" t="s">
         <v>415</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG.</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>driving_dist_2019_AVG.</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R50" t="str">
+        <f t="shared" si="5"/>
+        <v>df49=dataframe_2019[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2019_AVG.'})</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="str">
-        <f>"df"&amp;A51</f>
+        <f t="shared" si="7"/>
         <v>df50</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df50 = []</v>
       </c>
       <c r="D51" t="s">
@@ -5248,7 +5547,7 @@
         <v>156</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" ref="K51:K97" si="4">"'"&amp;J51&amp;"',"</f>
+        <f t="shared" ref="K51:K97" si="8">"'"&amp;J51&amp;"',"</f>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02341.y2019.html',</v>
       </c>
       <c r="L51" t="s">
@@ -5261,24 +5560,28 @@
         <v>418</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG (%)</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_ydg_tee_2019_AVG (%)</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R51" t="str">
+        <f t="shared" si="5"/>
+        <v>df50=dataframe_2019[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2019_AVG (%)'})</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="str">
-        <f>"df"&amp;A52</f>
+        <f t="shared" si="7"/>
         <v>df51</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df51 = []</v>
       </c>
       <c r="D52" t="s">
@@ -5303,7 +5606,7 @@
         <v>158</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.496.y2019.html',</v>
       </c>
       <c r="L52" t="s">
@@ -5316,24 +5619,28 @@
         <v>421</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>driving_320+_2019_%</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R52" t="str">
+        <f t="shared" si="5"/>
+        <v>df51=dataframe_2019[4][['%']].rename(columns={'%': 'driving_320+_2019_%'})</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="str">
-        <f>"df"&amp;A53</f>
+        <f t="shared" si="7"/>
         <v>df52</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df52 = []</v>
       </c>
       <c r="D53" t="s">
@@ -5358,7 +5665,7 @@
         <v>160</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02568.y2019.html',</v>
       </c>
       <c r="L53" t="s">
@@ -5368,24 +5675,28 @@
         <v>422</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_approach_green_2019_AVERAGE</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R53" t="str">
+        <f t="shared" si="5"/>
+        <v>df52=dataframe_2019[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2019_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="str">
-        <f>"df"&amp;A54</f>
+        <f t="shared" si="7"/>
         <v>df53</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df53 = []</v>
       </c>
       <c r="D54" t="s">
@@ -5410,7 +5721,7 @@
         <v>162</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.103.y2019.html',</v>
       </c>
       <c r="L54" t="s">
@@ -5420,24 +5731,28 @@
         <v>423</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GIR_pct_2019_%</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R54" t="str">
+        <f t="shared" si="5"/>
+        <v>df53=dataframe_2019[6][['%']].rename(columns={'%': 'GIR_pct_2019_%'})</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="str">
-        <f>"df"&amp;A55</f>
+        <f t="shared" si="7"/>
         <v>df54</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df54 = []</v>
       </c>
       <c r="D55" t="s">
@@ -5462,7 +5777,7 @@
         <v>164</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02437.y2019.html',</v>
       </c>
       <c r="L55" t="s">
@@ -5472,24 +5787,28 @@
         <v>424</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GOFIR_pct_2019_%</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R55" t="str">
+        <f t="shared" si="5"/>
+        <v>df54=dataframe_2019[7][['%']].rename(columns={'%': 'GOFIR_pct_2019_%'})</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="str">
-        <f>"df"&amp;A56</f>
+        <f t="shared" si="7"/>
         <v>df55</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df55 = []</v>
       </c>
       <c r="D56" t="s">
@@ -5514,7 +5833,7 @@
         <v>166</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.190.y2019.html',</v>
       </c>
       <c r="L56" t="s">
@@ -5524,24 +5843,28 @@
         <v>423</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GIR_pct_fwy_2019_%</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R56" t="str">
+        <f t="shared" si="5"/>
+        <v>df55=dataframe_2019[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2019_%'})</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="str">
-        <f>"df"&amp;A57</f>
+        <f t="shared" si="7"/>
         <v>df56</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df56 = []</v>
       </c>
       <c r="D57" t="s">
@@ -5566,7 +5889,7 @@
         <v>168</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.199.y2019.html',</v>
       </c>
       <c r="L57" t="s">
@@ -5576,24 +5899,28 @@
         <v>423</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>GIR_pct_not_fwy_2019_%</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R57" t="str">
+        <f t="shared" si="5"/>
+        <v>df56=dataframe_2019[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2019_%'})</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="str">
-        <f>"df"&amp;A58</f>
+        <f t="shared" si="7"/>
         <v>df57</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df57 = []</v>
       </c>
       <c r="D58" t="s">
@@ -5618,7 +5945,7 @@
         <v>170</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.431.y2019.html',</v>
       </c>
       <c r="L58" t="s">
@@ -5631,24 +5958,28 @@
         <v>427</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>fwy_prox_2019_AVG</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R58" t="str">
+        <f t="shared" si="5"/>
+        <v>df57=dataframe_2019[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2019_AVG'})</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="str">
-        <f>"df"&amp;A59</f>
+        <f t="shared" si="7"/>
         <v>df58</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df58 = []</v>
       </c>
       <c r="D59" t="s">
@@ -5673,7 +6004,7 @@
         <v>172</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.437.y2019.html',</v>
       </c>
       <c r="L59" t="s">
@@ -5689,24 +6020,28 @@
         <v>427</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>rough_prox_2019_AVG</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R59" t="str">
+        <f t="shared" si="5"/>
+        <v>df58=dataframe_2019[11][['AVG']].rename(columns={'AVG': 'rough_prox_2019_AVG'})</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="str">
-        <f>"df"&amp;A60</f>
+        <f t="shared" si="7"/>
         <v>df59</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df59 = []</v>
       </c>
       <c r="D60" t="s">
@@ -5731,7 +6066,7 @@
         <v>174</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02569.y2019.html',</v>
       </c>
       <c r="L60" t="s">
@@ -5741,24 +6076,28 @@
         <v>429</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_ATG_2019_AVERAGE</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R60" t="str">
+        <f t="shared" si="5"/>
+        <v>df59=dataframe_2019[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2019_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="str">
-        <f>"df"&amp;A61</f>
+        <f t="shared" si="7"/>
         <v>df60</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df60 = []</v>
       </c>
       <c r="D61" t="s">
@@ -5783,7 +6122,7 @@
         <v>176</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.111.y2019.html',</v>
       </c>
       <c r="L61" t="s">
@@ -5796,24 +6135,28 @@
         <v>431</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_sand_save_2019_%</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R61" t="str">
+        <f t="shared" si="5"/>
+        <v>df60=dataframe_2019[13][['%']].rename(columns={'%': 'pct_sand_save_2019_%'})</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="str">
-        <f>"df"&amp;A62</f>
+        <f t="shared" si="7"/>
         <v>df61</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df61 = []</v>
       </c>
       <c r="D62" t="s">
@@ -5838,7 +6181,7 @@
         <v>178</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.130.y2019.html',</v>
       </c>
       <c r="L62" t="s">
@@ -5851,24 +6194,28 @@
         <v>433</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>scrambling_2019_%</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R62" t="str">
+        <f t="shared" si="5"/>
+        <v>df61=dataframe_2019[14][['%']].rename(columns={'%': 'scrambling_2019_%'})</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="str">
-        <f>"df"&amp;A63</f>
+        <f t="shared" si="7"/>
         <v>df62</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df62 = []</v>
       </c>
       <c r="D63" t="s">
@@ -5893,7 +6240,7 @@
         <v>180</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02564.y2019.html',</v>
       </c>
       <c r="L63" t="s">
@@ -5903,24 +6250,28 @@
         <v>434</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>SG_putt_2019_AVERAGE</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R63" t="str">
+        <f t="shared" si="5"/>
+        <v>df62=dataframe_2019[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2019_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="str">
-        <f>"df"&amp;A64</f>
+        <f t="shared" si="7"/>
         <v>df63</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df63 = []</v>
       </c>
       <c r="D64" t="s">
@@ -5945,7 +6296,7 @@
         <v>182</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.413.y2019.html',</v>
       </c>
       <c r="L64" t="s">
@@ -5958,24 +6309,28 @@
         <v>437</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_one_putt_2019_%</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R64" t="str">
+        <f t="shared" si="5"/>
+        <v>df63=dataframe_2019[16][['%']].rename(columns={'%': 'pct_one_putt_2019_%'})</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="str">
-        <f>"df"&amp;A65</f>
+        <f t="shared" si="7"/>
         <v>df64</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df64 = []</v>
       </c>
       <c r="D65" t="s">
@@ -6000,7 +6355,7 @@
         <v>184</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.426.y2019.html',</v>
       </c>
       <c r="L65" t="s">
@@ -6013,24 +6368,28 @@
         <v>439</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>%</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>pct_three_putt_avoid_2019_%</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R65" t="str">
+        <f t="shared" si="5"/>
+        <v>df64=dataframe_2019[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2019_%'})</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="str">
-        <f>"df"&amp;A66</f>
+        <f t="shared" ref="B66:B97" si="9">"df"&amp;A66</f>
         <v>df65</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>df65 = []</v>
       </c>
       <c r="D66" t="s">
@@ -6055,7 +6414,7 @@
         <v>186</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.104.y2019.html',</v>
       </c>
       <c r="L66" t="s">
@@ -6071,24 +6430,28 @@
         <v>441</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AVG</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>putt_avg_2019_AVG</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R66" t="str">
+        <f t="shared" si="5"/>
+        <v>df65=dataframe_2019[18][['AVG']].rename(columns={'AVG': 'putt_avg_2019_AVG'})</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="str">
-        <f>"df"&amp;A67</f>
+        <f t="shared" si="9"/>
         <v>df66</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C116" si="5">B67&amp;" = "&amp;"[]"</f>
+        <f t="shared" ref="C67:C116" si="10">B67&amp;" = "&amp;"[]"</f>
         <v>df66 = []</v>
       </c>
       <c r="D67" t="s">
@@ -6113,7 +6476,7 @@
         <v>188</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.119.y2019.html',</v>
       </c>
       <c r="L67" t="s">
@@ -6126,24 +6489,28 @@
         <v>443</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P116" si="6">L67</f>
+        <f t="shared" ref="P67:P116" si="11">L67</f>
         <v>AVG</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>putts_per_rd_2019_AVG</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R67" t="str">
+        <f t="shared" ref="R67:R116" si="12">B67&amp;"="&amp;D67&amp;"[["&amp;"'"&amp;P67&amp;"']].rename(columns={'"&amp;P67&amp;"': '"&amp;Q67&amp;"'})"</f>
+        <v>df66=dataframe_2019[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2019_AVG'})</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="str">
-        <f>"df"&amp;A68</f>
+        <f t="shared" si="9"/>
         <v>df67</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df67 = []</v>
       </c>
       <c r="D68" t="s">
@@ -6168,7 +6535,7 @@
         <v>190</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02414.y2019.html',</v>
       </c>
       <c r="L68" t="s">
@@ -6181,24 +6548,28 @@
         <v>446</v>
       </c>
       <c r="P68" t="str">
+        <f t="shared" si="11"/>
+        <v>% MAKES BOGEY</v>
+      </c>
+      <c r="Q68" t="str">
         <f t="shared" si="6"/>
-        <v>% MAKES BOGEY</v>
-      </c>
-      <c r="Q68" t="str">
-        <f t="shared" si="3"/>
         <v>bogey_avoid_2019_% MAKES BOGEY</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R68" t="str">
+        <f t="shared" si="12"/>
+        <v>df67=dataframe_2019[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2019_% MAKES BOGEY'})</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="str">
-        <f>"df"&amp;A69</f>
+        <f t="shared" si="9"/>
         <v>df68</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df68 = []</v>
       </c>
       <c r="D69" t="s">
@@ -6223,7 +6594,7 @@
         <v>192</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02415.y2019.html',</v>
       </c>
       <c r="L69" t="s">
@@ -6236,24 +6607,28 @@
         <v>449</v>
       </c>
       <c r="P69" t="str">
+        <f t="shared" si="11"/>
+        <v>BIRDIE TO BOGEY RATIO</v>
+      </c>
+      <c r="Q69" t="str">
         <f t="shared" si="6"/>
-        <v>BIRDIE TO BOGEY RATIO</v>
-      </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="3"/>
         <v>btb_ratio_2019_BIRDIE TO BOGEY RATIO</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R69" t="str">
+        <f t="shared" si="12"/>
+        <v>df68=dataframe_2019[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2019_BIRDIE TO BOGEY RATIO'})</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="str">
-        <f>"df"&amp;A70</f>
+        <f t="shared" si="9"/>
         <v>df69</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df69 = []</v>
       </c>
       <c r="D70" t="s">
@@ -6278,7 +6653,7 @@
         <v>194</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.109.y2019.html',</v>
       </c>
       <c r="L70" t="s">
@@ -6291,24 +6666,28 @@
         <v>451</v>
       </c>
       <c r="P70" t="str">
+        <f>M70</f>
+        <v>MONEY</v>
+      </c>
+      <c r="Q70" t="str">
         <f t="shared" si="6"/>
-        <v>EVENTS</v>
-      </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="3"/>
-        <v>money_2019_EVENTS</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+        <v>money_2019_MONEY</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="12"/>
+        <v>df69=dataframe_2019[22][['MONEY']].rename(columns={'MONEY': 'money_2019_MONEY'})</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="str">
-        <f>"df"&amp;A71</f>
+        <f t="shared" si="9"/>
         <v>df70</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df70 = []</v>
       </c>
       <c r="D71" t="s">
@@ -6333,7 +6712,7 @@
         <v>196</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02567.y2018.html',</v>
       </c>
       <c r="L71" t="s">
@@ -6343,24 +6722,28 @@
         <v>411</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q71:Q115" si="13">I71&amp;"_"&amp;P71</f>
         <v>SG_off_tee_2018_AVERAGE</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R71" t="str">
+        <f t="shared" si="12"/>
+        <v>df70=dataframe_2018[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2018_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="str">
-        <f>"df"&amp;A72</f>
+        <f t="shared" si="9"/>
         <v>df71</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df71 = []</v>
       </c>
       <c r="D72" t="s">
@@ -6385,7 +6768,7 @@
         <v>198</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02674.y2018.html',</v>
       </c>
       <c r="L72" t="s">
@@ -6401,24 +6784,28 @@
         <v>414</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>SG_tee_green_2018_AVERAGE</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R72" t="str">
+        <f t="shared" si="12"/>
+        <v>df71=dataframe_2018[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2018_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="str">
-        <f>"df"&amp;A73</f>
+        <f t="shared" si="9"/>
         <v>df72</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df72 = []</v>
       </c>
       <c r="D73" t="s">
@@ -6443,31 +6830,35 @@
         <v>200</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.101.y2018.html',</v>
       </c>
       <c r="L73" t="s">
         <v>415</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG.</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>driving_dist_2018_AVG.</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R73" t="str">
+        <f t="shared" si="12"/>
+        <v>df72=dataframe_2018[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2018_AVG.'})</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="str">
-        <f>"df"&amp;A74</f>
+        <f t="shared" si="9"/>
         <v>df73</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df73 = []</v>
       </c>
       <c r="D74" t="s">
@@ -6492,7 +6883,7 @@
         <v>202</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02341.y2018.html',</v>
       </c>
       <c r="L74" t="s">
@@ -6505,24 +6896,28 @@
         <v>418</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG (%)</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>pct_ydg_tee_2018_AVG (%)</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R74" t="str">
+        <f t="shared" si="12"/>
+        <v>df73=dataframe_2018[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2018_AVG (%)'})</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="str">
-        <f>"df"&amp;A75</f>
+        <f t="shared" si="9"/>
         <v>df74</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df74 = []</v>
       </c>
       <c r="D75" t="s">
@@ -6547,7 +6942,7 @@
         <v>204</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.496.y2018.html',</v>
       </c>
       <c r="L75" t="s">
@@ -6560,24 +6955,28 @@
         <v>421</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>driving_320+_2018_%</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R75" t="str">
+        <f t="shared" si="12"/>
+        <v>df74=dataframe_2018[4][['%']].rename(columns={'%': 'driving_320+_2018_%'})</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="str">
-        <f>"df"&amp;A76</f>
+        <f t="shared" si="9"/>
         <v>df75</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df75 = []</v>
       </c>
       <c r="D76" t="s">
@@ -6602,7 +7001,7 @@
         <v>206</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02568.y2018.html',</v>
       </c>
       <c r="L76" t="s">
@@ -6612,24 +7011,28 @@
         <v>422</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>SG_approach_green_2018_AVERAGE</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R76" t="str">
+        <f t="shared" si="12"/>
+        <v>df75=dataframe_2018[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2018_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="str">
-        <f>"df"&amp;A77</f>
+        <f t="shared" si="9"/>
         <v>df76</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df76 = []</v>
       </c>
       <c r="D77" t="s">
@@ -6654,7 +7057,7 @@
         <v>208</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.103.y2018.html',</v>
       </c>
       <c r="L77" t="s">
@@ -6664,24 +7067,28 @@
         <v>423</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>GIR_pct_2018_%</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R77" t="str">
+        <f t="shared" si="12"/>
+        <v>df76=dataframe_2018[6][['%']].rename(columns={'%': 'GIR_pct_2018_%'})</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="str">
-        <f>"df"&amp;A78</f>
+        <f t="shared" si="9"/>
         <v>df77</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df77 = []</v>
       </c>
       <c r="D78" t="s">
@@ -6706,7 +7113,7 @@
         <v>210</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02437.y2018.html',</v>
       </c>
       <c r="L78" t="s">
@@ -6716,24 +7123,28 @@
         <v>424</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>GOFIR_pct_2018_%</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R78" t="str">
+        <f t="shared" si="12"/>
+        <v>df77=dataframe_2018[7][['%']].rename(columns={'%': 'GOFIR_pct_2018_%'})</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="str">
-        <f>"df"&amp;A79</f>
+        <f t="shared" si="9"/>
         <v>df78</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df78 = []</v>
       </c>
       <c r="D79" t="s">
@@ -6758,7 +7169,7 @@
         <v>212</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.190.y2018.html',</v>
       </c>
       <c r="L79" t="s">
@@ -6768,24 +7179,28 @@
         <v>423</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>GIR_pct_fwy_2018_%</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R79" t="str">
+        <f t="shared" si="12"/>
+        <v>df78=dataframe_2018[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2018_%'})</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="str">
-        <f>"df"&amp;A80</f>
+        <f t="shared" si="9"/>
         <v>df79</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df79 = []</v>
       </c>
       <c r="D80" t="s">
@@ -6810,7 +7225,7 @@
         <v>214</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.199.y2018.html',</v>
       </c>
       <c r="L80" t="s">
@@ -6820,24 +7235,28 @@
         <v>423</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>GIR_pct_not_fwy_2018_%</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R80" t="str">
+        <f t="shared" si="12"/>
+        <v>df79=dataframe_2018[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2018_%'})</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="str">
-        <f>"df"&amp;A81</f>
+        <f t="shared" si="9"/>
         <v>df80</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df80 = []</v>
       </c>
       <c r="D81" t="s">
@@ -6862,7 +7281,7 @@
         <v>216</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.431.y2018.html',</v>
       </c>
       <c r="L81" t="s">
@@ -6875,24 +7294,28 @@
         <v>427</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>fwy_prox_2018_AVG</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R81" t="str">
+        <f t="shared" si="12"/>
+        <v>df80=dataframe_2018[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2018_AVG'})</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="str">
-        <f>"df"&amp;A82</f>
+        <f t="shared" si="9"/>
         <v>df81</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df81 = []</v>
       </c>
       <c r="D82" t="s">
@@ -6917,7 +7340,7 @@
         <v>218</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.437.y2018.html',</v>
       </c>
       <c r="L82" t="s">
@@ -6933,24 +7356,28 @@
         <v>427</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>rough_prox_2018_AVG</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R82" t="str">
+        <f t="shared" si="12"/>
+        <v>df81=dataframe_2018[11][['AVG']].rename(columns={'AVG': 'rough_prox_2018_AVG'})</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="str">
-        <f>"df"&amp;A83</f>
+        <f t="shared" si="9"/>
         <v>df82</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df82 = []</v>
       </c>
       <c r="D83" t="s">
@@ -6975,7 +7402,7 @@
         <v>220</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02569.y2018.html',</v>
       </c>
       <c r="L83" t="s">
@@ -6985,24 +7412,28 @@
         <v>429</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>SG_ATG_2018_AVERAGE</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R83" t="str">
+        <f t="shared" si="12"/>
+        <v>df82=dataframe_2018[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2018_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="str">
-        <f>"df"&amp;A84</f>
+        <f t="shared" si="9"/>
         <v>df83</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df83 = []</v>
       </c>
       <c r="D84" t="s">
@@ -7027,7 +7458,7 @@
         <v>222</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.111.y2018.html',</v>
       </c>
       <c r="L84" t="s">
@@ -7040,24 +7471,28 @@
         <v>431</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>pct_sand_save_2018_%</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R84" t="str">
+        <f t="shared" si="12"/>
+        <v>df83=dataframe_2018[13][['%']].rename(columns={'%': 'pct_sand_save_2018_%'})</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="str">
-        <f>"df"&amp;A85</f>
+        <f t="shared" si="9"/>
         <v>df84</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df84 = []</v>
       </c>
       <c r="D85" t="s">
@@ -7082,7 +7517,7 @@
         <v>224</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.130.y2018.html',</v>
       </c>
       <c r="L85" t="s">
@@ -7095,24 +7530,28 @@
         <v>433</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>scrambling_2018_%</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R85" t="str">
+        <f t="shared" si="12"/>
+        <v>df84=dataframe_2018[14][['%']].rename(columns={'%': 'scrambling_2018_%'})</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="str">
-        <f>"df"&amp;A86</f>
+        <f t="shared" si="9"/>
         <v>df85</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df85 = []</v>
       </c>
       <c r="D86" t="s">
@@ -7137,7 +7576,7 @@
         <v>226</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02564.y2018.html',</v>
       </c>
       <c r="L86" t="s">
@@ -7147,24 +7586,28 @@
         <v>434</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>SG_putt_2018_AVERAGE</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R86" t="str">
+        <f t="shared" si="12"/>
+        <v>df85=dataframe_2018[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2018_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="str">
-        <f>"df"&amp;A87</f>
+        <f t="shared" si="9"/>
         <v>df86</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df86 = []</v>
       </c>
       <c r="D87" t="s">
@@ -7189,7 +7632,7 @@
         <v>228</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.413.y2018.html',</v>
       </c>
       <c r="L87" t="s">
@@ -7202,24 +7645,28 @@
         <v>437</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>pct_one_putt_2018_%</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R87" t="str">
+        <f t="shared" si="12"/>
+        <v>df86=dataframe_2018[16][['%']].rename(columns={'%': 'pct_one_putt_2018_%'})</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="str">
-        <f>"df"&amp;A88</f>
+        <f t="shared" si="9"/>
         <v>df87</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df87 = []</v>
       </c>
       <c r="D88" t="s">
@@ -7244,7 +7691,7 @@
         <v>230</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.426.y2018.html',</v>
       </c>
       <c r="L88" t="s">
@@ -7257,24 +7704,28 @@
         <v>439</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>pct_three_putt_avoid_2018_%</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R88" t="str">
+        <f t="shared" si="12"/>
+        <v>df87=dataframe_2018[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2018_%'})</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="str">
-        <f>"df"&amp;A89</f>
+        <f t="shared" si="9"/>
         <v>df88</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df88 = []</v>
       </c>
       <c r="D89" t="s">
@@ -7299,7 +7750,7 @@
         <v>232</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.104.y2018.html',</v>
       </c>
       <c r="L89" t="s">
@@ -7315,24 +7766,28 @@
         <v>441</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>putt_avg_2018_AVG</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R89" t="str">
+        <f t="shared" si="12"/>
+        <v>df88=dataframe_2018[18][['AVG']].rename(columns={'AVG': 'putt_avg_2018_AVG'})</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="str">
-        <f>"df"&amp;A90</f>
+        <f t="shared" si="9"/>
         <v>df89</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df89 = []</v>
       </c>
       <c r="D90" t="s">
@@ -7357,7 +7812,7 @@
         <v>234</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.119.y2018.html',</v>
       </c>
       <c r="L90" t="s">
@@ -7370,24 +7825,28 @@
         <v>443</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>putts_per_rd_2018_AVG</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R90" t="str">
+        <f t="shared" si="12"/>
+        <v>df89=dataframe_2018[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2018_AVG'})</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="str">
-        <f>"df"&amp;A91</f>
+        <f t="shared" si="9"/>
         <v>df90</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df90 = []</v>
       </c>
       <c r="D91" t="s">
@@ -7412,7 +7871,7 @@
         <v>236</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02414.y2018.html',</v>
       </c>
       <c r="L91" t="s">
@@ -7425,24 +7884,28 @@
         <v>446</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>% MAKES BOGEY</v>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" ref="Q91:Q116" si="7">I91&amp;"_"&amp;P91</f>
+        <f t="shared" si="13"/>
         <v>bogey_avoid_2018_% MAKES BOGEY</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R91" t="str">
+        <f t="shared" si="12"/>
+        <v>df90=dataframe_2018[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2018_% MAKES BOGEY'})</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="str">
-        <f>"df"&amp;A92</f>
+        <f t="shared" si="9"/>
         <v>df91</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df91 = []</v>
       </c>
       <c r="D92" t="s">
@@ -7467,7 +7930,7 @@
         <v>238</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02415.y2018.html',</v>
       </c>
       <c r="L92" t="s">
@@ -7480,24 +7943,28 @@
         <v>449</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>BIRDIE TO BOGEY RATIO</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>btb_ratio_2018_BIRDIE TO BOGEY RATIO</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R92" t="str">
+        <f t="shared" si="12"/>
+        <v>df91=dataframe_2018[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2018_BIRDIE TO BOGEY RATIO'})</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="str">
-        <f>"df"&amp;A93</f>
+        <f t="shared" si="9"/>
         <v>df92</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df92 = []</v>
       </c>
       <c r="D93" t="s">
@@ -7522,7 +7989,7 @@
         <v>240</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.109.y2018.html',</v>
       </c>
       <c r="L93" t="s">
@@ -7535,24 +8002,28 @@
         <v>451</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="6"/>
-        <v>EVENTS</v>
+        <f>M93</f>
+        <v>MONEY</v>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" si="7"/>
-        <v>money_2018_EVENTS</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>money_2018_MONEY</v>
+      </c>
+      <c r="R93" t="str">
+        <f t="shared" si="12"/>
+        <v>df92=dataframe_2018[22][['MONEY']].rename(columns={'MONEY': 'money_2018_MONEY'})</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="str">
-        <f>"df"&amp;A94</f>
+        <f t="shared" si="9"/>
         <v>df93</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df93 = []</v>
       </c>
       <c r="D94" t="s">
@@ -7577,7 +8048,7 @@
         <v>242</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02567.y2017.html',</v>
       </c>
       <c r="L94" t="s">
@@ -7587,24 +8058,28 @@
         <v>411</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>SG_off_tee_2017_AVERAGE</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R94" t="str">
+        <f t="shared" si="12"/>
+        <v>df93=dataframe_2017[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2017_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="str">
-        <f>"df"&amp;A95</f>
+        <f t="shared" si="9"/>
         <v>df94</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df94 = []</v>
       </c>
       <c r="D95" t="s">
@@ -7629,7 +8104,7 @@
         <v>244</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02674.y2017.html',</v>
       </c>
       <c r="L95" t="s">
@@ -7645,24 +8120,28 @@
         <v>414</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>SG_tee_green_2017_AVERAGE</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R95" t="str">
+        <f t="shared" si="12"/>
+        <v>df94=dataframe_2017[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2017_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="str">
-        <f>"df"&amp;A96</f>
+        <f t="shared" si="9"/>
         <v>df95</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df95 = []</v>
       </c>
       <c r="D96" t="s">
@@ -7687,31 +8166,35 @@
         <v>246</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.101.y2017.html',</v>
       </c>
       <c r="L96" t="s">
         <v>415</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG.</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>driving_dist_2017_AVG.</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R96" t="str">
+        <f t="shared" si="12"/>
+        <v>df95=dataframe_2017[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2017_AVG.'})</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="str">
-        <f>"df"&amp;A97</f>
+        <f t="shared" si="9"/>
         <v>df96</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df96 = []</v>
       </c>
       <c r="D97" t="s">
@@ -7736,7 +8219,7 @@
         <v>248</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02341.y2017.html',</v>
       </c>
       <c r="L97" t="s">
@@ -7749,24 +8232,28 @@
         <v>418</v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG (%)</v>
       </c>
       <c r="Q97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>pct_ydg_tee_2017_AVG (%)</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R97" t="str">
+        <f t="shared" si="12"/>
+        <v>df96=dataframe_2017[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2017_AVG (%)'})</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="str">
-        <f>"df"&amp;A98</f>
+        <f t="shared" ref="B98:B129" si="14">"df"&amp;A98</f>
         <v>df97</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df97 = []</v>
       </c>
       <c r="D98" t="s">
@@ -7791,7 +8278,7 @@
         <v>250</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" ref="K98:K116" si="8">"'"&amp;J98&amp;"',"</f>
+        <f t="shared" ref="K98:K116" si="15">"'"&amp;J98&amp;"',"</f>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.496.y2017.html',</v>
       </c>
       <c r="L98" t="s">
@@ -7804,24 +8291,28 @@
         <v>421</v>
       </c>
       <c r="P98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>driving_320+_2017_%</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R98" t="str">
+        <f t="shared" si="12"/>
+        <v>df97=dataframe_2017[4][['%']].rename(columns={'%': 'driving_320+_2017_%'})</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="str">
-        <f>"df"&amp;A99</f>
+        <f t="shared" si="14"/>
         <v>df98</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df98 = []</v>
       </c>
       <c r="D99" t="s">
@@ -7846,7 +8337,7 @@
         <v>252</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02568.y2017.html',</v>
       </c>
       <c r="L99" t="s">
@@ -7856,24 +8347,28 @@
         <v>422</v>
       </c>
       <c r="P99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>SG_approach_green_2017_AVERAGE</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R99" t="str">
+        <f t="shared" si="12"/>
+        <v>df98=dataframe_2017[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2017_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="str">
-        <f>"df"&amp;A100</f>
+        <f t="shared" si="14"/>
         <v>df99</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df99 = []</v>
       </c>
       <c r="D100" t="s">
@@ -7898,7 +8393,7 @@
         <v>254</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.103.y2017.html',</v>
       </c>
       <c r="L100" t="s">
@@ -7908,24 +8403,28 @@
         <v>423</v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GIR_pct_2017_%</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R100" t="str">
+        <f t="shared" si="12"/>
+        <v>df99=dataframe_2017[6][['%']].rename(columns={'%': 'GIR_pct_2017_%'})</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="str">
-        <f>"df"&amp;A101</f>
+        <f t="shared" si="14"/>
         <v>df100</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df100 = []</v>
       </c>
       <c r="D101" t="s">
@@ -7950,7 +8449,7 @@
         <v>256</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02437.y2017.html',</v>
       </c>
       <c r="L101" t="s">
@@ -7960,24 +8459,28 @@
         <v>424</v>
       </c>
       <c r="P101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GOFIR_pct_2017_%</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R101" t="str">
+        <f t="shared" si="12"/>
+        <v>df100=dataframe_2017[7][['%']].rename(columns={'%': 'GOFIR_pct_2017_%'})</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="str">
-        <f>"df"&amp;A102</f>
+        <f t="shared" si="14"/>
         <v>df101</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df101 = []</v>
       </c>
       <c r="D102" t="s">
@@ -8002,7 +8505,7 @@
         <v>258</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.190.y2017.html',</v>
       </c>
       <c r="L102" t="s">
@@ -8012,24 +8515,28 @@
         <v>423</v>
       </c>
       <c r="P102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q102" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GIR_pct_fwy_2017_%</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R102" t="str">
+        <f t="shared" si="12"/>
+        <v>df101=dataframe_2017[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2017_%'})</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="str">
-        <f>"df"&amp;A103</f>
+        <f t="shared" si="14"/>
         <v>df102</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df102 = []</v>
       </c>
       <c r="D103" t="s">
@@ -8054,7 +8561,7 @@
         <v>260</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.199.y2017.html',</v>
       </c>
       <c r="L103" t="s">
@@ -8064,24 +8571,28 @@
         <v>423</v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q103" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GIR_pct_not_fwy_2017_%</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R103" t="str">
+        <f t="shared" si="12"/>
+        <v>df102=dataframe_2017[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2017_%'})</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="str">
-        <f>"df"&amp;A104</f>
+        <f t="shared" si="14"/>
         <v>df103</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df103 = []</v>
       </c>
       <c r="D104" t="s">
@@ -8106,7 +8617,7 @@
         <v>262</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.431.y2017.html',</v>
       </c>
       <c r="L104" t="s">
@@ -8119,24 +8630,28 @@
         <v>427</v>
       </c>
       <c r="P104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q104" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>fwy_prox_2017_AVG</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R104" t="str">
+        <f t="shared" si="12"/>
+        <v>df103=dataframe_2017[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2017_AVG'})</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="str">
-        <f>"df"&amp;A105</f>
+        <f t="shared" si="14"/>
         <v>df104</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df104 = []</v>
       </c>
       <c r="D105" t="s">
@@ -8161,7 +8676,7 @@
         <v>264</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.437.y2017.html',</v>
       </c>
       <c r="L105" t="s">
@@ -8177,24 +8692,28 @@
         <v>427</v>
       </c>
       <c r="P105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q105" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>rough_prox_2017_AVG</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R105" t="str">
+        <f t="shared" si="12"/>
+        <v>df104=dataframe_2017[11][['AVG']].rename(columns={'AVG': 'rough_prox_2017_AVG'})</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="str">
-        <f>"df"&amp;A106</f>
+        <f t="shared" si="14"/>
         <v>df105</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df105 = []</v>
       </c>
       <c r="D106" t="s">
@@ -8219,7 +8738,7 @@
         <v>266</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02569.y2017.html',</v>
       </c>
       <c r="L106" t="s">
@@ -8229,24 +8748,28 @@
         <v>429</v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q106" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>SG_ATG_2017_AVERAGE</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R106" t="str">
+        <f t="shared" si="12"/>
+        <v>df105=dataframe_2017[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2017_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="str">
-        <f>"df"&amp;A107</f>
+        <f t="shared" si="14"/>
         <v>df106</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df106 = []</v>
       </c>
       <c r="D107" t="s">
@@ -8271,7 +8794,7 @@
         <v>268</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.111.y2017.html',</v>
       </c>
       <c r="L107" t="s">
@@ -8284,24 +8807,28 @@
         <v>431</v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>pct_sand_save_2017_%</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R107" t="str">
+        <f t="shared" si="12"/>
+        <v>df106=dataframe_2017[13][['%']].rename(columns={'%': 'pct_sand_save_2017_%'})</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="str">
-        <f>"df"&amp;A108</f>
+        <f t="shared" si="14"/>
         <v>df107</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df107 = []</v>
       </c>
       <c r="D108" t="s">
@@ -8326,7 +8853,7 @@
         <v>270</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.130.y2017.html',</v>
       </c>
       <c r="L108" t="s">
@@ -8339,24 +8866,28 @@
         <v>433</v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q108" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>scrambling_2017_%</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R108" t="str">
+        <f t="shared" si="12"/>
+        <v>df107=dataframe_2017[14][['%']].rename(columns={'%': 'scrambling_2017_%'})</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="str">
-        <f>"df"&amp;A109</f>
+        <f t="shared" si="14"/>
         <v>df108</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df108 = []</v>
       </c>
       <c r="D109" t="s">
@@ -8381,7 +8912,7 @@
         <v>272</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02564.y2017.html',</v>
       </c>
       <c r="L109" t="s">
@@ -8391,24 +8922,28 @@
         <v>434</v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVERAGE</v>
       </c>
       <c r="Q109" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>SG_putt_2017_AVERAGE</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R109" t="str">
+        <f t="shared" si="12"/>
+        <v>df108=dataframe_2017[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2017_AVERAGE'})</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="str">
-        <f>"df"&amp;A110</f>
+        <f t="shared" si="14"/>
         <v>df109</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df109 = []</v>
       </c>
       <c r="D110" t="s">
@@ -8433,7 +8968,7 @@
         <v>274</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.413.y2017.html',</v>
       </c>
       <c r="L110" t="s">
@@ -8446,24 +8981,28 @@
         <v>437</v>
       </c>
       <c r="P110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q110" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>pct_one_putt_2017_%</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R110" t="str">
+        <f t="shared" si="12"/>
+        <v>df109=dataframe_2017[16][['%']].rename(columns={'%': 'pct_one_putt_2017_%'})</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="str">
-        <f>"df"&amp;A111</f>
+        <f t="shared" si="14"/>
         <v>df110</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df110 = []</v>
       </c>
       <c r="D111" t="s">
@@ -8488,7 +9027,7 @@
         <v>276</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.426.y2017.html',</v>
       </c>
       <c r="L111" t="s">
@@ -8501,24 +9040,28 @@
         <v>439</v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>%</v>
       </c>
       <c r="Q111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>pct_three_putt_avoid_2017_%</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R111" t="str">
+        <f t="shared" si="12"/>
+        <v>df110=dataframe_2017[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2017_%'})</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="str">
-        <f>"df"&amp;A112</f>
+        <f t="shared" si="14"/>
         <v>df111</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df111 = []</v>
       </c>
       <c r="D112" t="s">
@@ -8543,7 +9086,7 @@
         <v>278</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.104.y2017.html',</v>
       </c>
       <c r="L112" t="s">
@@ -8559,24 +9102,28 @@
         <v>441</v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>putt_avg_2017_AVG</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R112" t="str">
+        <f t="shared" si="12"/>
+        <v>df111=dataframe_2017[18][['AVG']].rename(columns={'AVG': 'putt_avg_2017_AVG'})</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="str">
-        <f>"df"&amp;A113</f>
+        <f t="shared" si="14"/>
         <v>df112</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df112 = []</v>
       </c>
       <c r="D113" t="s">
@@ -8601,7 +9148,7 @@
         <v>280</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.119.y2017.html',</v>
       </c>
       <c r="L113" t="s">
@@ -8614,24 +9161,28 @@
         <v>443</v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>AVG</v>
       </c>
       <c r="Q113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>putts_per_rd_2017_AVG</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R113" t="str">
+        <f t="shared" si="12"/>
+        <v>df112=dataframe_2017[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2017_AVG'})</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="str">
-        <f>"df"&amp;A114</f>
+        <f t="shared" si="14"/>
         <v>df113</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df113 = []</v>
       </c>
       <c r="D114" t="s">
@@ -8656,7 +9207,7 @@
         <v>282</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02414.y2017.html',</v>
       </c>
       <c r="L114" t="s">
@@ -8669,24 +9220,28 @@
         <v>446</v>
       </c>
       <c r="P114" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>% MAKES BOGEY</v>
       </c>
       <c r="Q114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>bogey_avoid_2017_% MAKES BOGEY</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R114" t="str">
+        <f t="shared" si="12"/>
+        <v>df113=dataframe_2017[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2017_% MAKES BOGEY'})</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="str">
-        <f>"df"&amp;A115</f>
+        <f t="shared" si="14"/>
         <v>df114</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df114 = []</v>
       </c>
       <c r="D115" t="s">
@@ -8711,7 +9266,7 @@
         <v>284</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.02415.y2017.html',</v>
       </c>
       <c r="L115" t="s">
@@ -8724,24 +9279,28 @@
         <v>449</v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>BIRDIE TO BOGEY RATIO</v>
       </c>
       <c r="Q115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>btb_ratio_2017_BIRDIE TO BOGEY RATIO</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R115" t="str">
+        <f t="shared" si="12"/>
+        <v>df114=dataframe_2017[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2017_BIRDIE TO BOGEY RATIO'})</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="str">
-        <f>"df"&amp;A116</f>
+        <f t="shared" si="14"/>
         <v>df115</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>df115 = []</v>
       </c>
       <c r="D116" t="s">
@@ -8766,7 +9325,7 @@
         <v>286</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>'https://www.pgatour.com/content/pgatour/stats/stat.109.y2017.html',</v>
       </c>
       <c r="L116" t="s">
@@ -8779,16 +9338,20 @@
         <v>451</v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" si="6"/>
-        <v>EVENTS</v>
+        <f>M116</f>
+        <v>MONEY</v>
       </c>
       <c r="Q116" t="str">
-        <f t="shared" si="7"/>
-        <v>money_2017_EVENTS</v>
+        <f t="shared" ref="Q91:Q116" si="16">I116&amp;"_"&amp;P116</f>
+        <v>money_2017_MONEY</v>
+      </c>
+      <c r="R116" t="str">
+        <f t="shared" si="12"/>
+        <v>df115=dataframe_2017[22][['MONEY']].rename(columns={'MONEY': 'money_2017_MONEY'})</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P156" xr:uid="{8E97D8DE-68A4-4BA7-BF3A-BA67421C99AA}"/>
+  <autoFilter ref="A1:Q116" xr:uid="{CF5BCD8F-7224-4F64-B69C-1C660C88D9FC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -8796,13 +9359,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -8810,12 +9378,12 @@
         <f>A1&amp;","</f>
         <v>df1,</v>
       </c>
-      <c r="D1" t="str">
-        <f>CONCATENATE(B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63,B64,B65,B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B84,B85,B86,B87,B88,B89,B90,B91,B92,B93,B94,B95,B96,B97,B98,B99,B100,B101,B102,B103,B104,B105,B106,B107,B108,B109,B110,B111,B112,B113,B114,B115)</f>
-        <v>df1,df2,df3,df4,df5,df6,df7,df8,df9,df10,df11,df12,df13,df14,df15,df16,df17,df18,df19,df20,df21,df22,df23,df24,df25,df26,df27,df28,df29,df30,df31,df32,df33,df34,df35,df36,df37,df38,df39,df40,df41,df42,df43,df44,df45,df46,df47,df48,df49,df50,df51,df52,df53,df54,df55,df56,df57,df58,df59,df60,df61,df62,df63,df64,df65,df66,df67,df68,df69,df70,df71,df72,df73,df74,df75,df76,df77,df78,df79,df80,df81,df82,df83,df84,df85,df86,df87,df88,df89,df90,df91,df92,df93,df94,df95,df96,df97,df98,df99,df100,df101,df102,df103,df104,df105,df106,df107,df108,df109,df110,df111,df112,df113,df114,df115,</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" t="str">
+        <f>A1&amp;".join("</f>
+        <v>df1.join(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -8823,8 +9391,16 @@
         <f t="shared" ref="B2:B65" si="0">A2&amp;","</f>
         <v>df2,</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="str">
+        <f>A2&amp;").join("</f>
+        <v>df2).join(</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63,B64,B65,B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B84,B85,B86,B87,B88,B89,B90,B91,B92,B93,B94,B95,B96,B97,B98,B99,B100,B101,B102,B103,B104,B105,B106,B107,B108,B109,B110,B111,B112,B113,B114,B115)</f>
+        <v>df1,df2,df3,df4,df5,df6,df7,df8,df9,df10,df11,df12,df13,df14,df15,df16,df17,df18,df19,df20,df21,df22,df23,df24,df25,df26,df27,df28,df29,df30,df31,df32,df33,df34,df35,df36,df37,df38,df39,df40,df41,df42,df43,df44,df45,df46,df47,df48,df49,df50,df51,df52,df53,df54,df55,df56,df57,df58,df59,df60,df61,df62,df63,df64,df65,df66,df67,df68,df69,df70,df71,df72,df73,df74,df75,df76,df77,df78,df79,df80,df81,df82,df83,df84,df85,df86,df87,df88,df89,df90,df91,df92,df93,df94,df95,df96,df97,df98,df99,df100,df101,df102,df103,df104,df105,df106,df107,df108,df109,df110,df111,df112,df113,df114,df115,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -8832,8 +9408,16 @@
         <f t="shared" si="0"/>
         <v>df3,</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="1">A3&amp;").join("</f>
+        <v>df3).join(</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE(C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115)</f>
+        <v>df1.join(df2).join(df3).join(df4).join(df5).join(df6).join(df7).join(df8).join(df9).join(df10).join(df11).join(df12).join(df13).join(df14).join(df15).join(df16).join(df17).join(df18).join(df19).join(df20).join(df21).join(df22).join(df23).join(df24).join(df25).join(df26).join(df27).join(df28).join(df29).join(df30).join(df31).join(df32).join(df33).join(df34).join(df35).join(df36).join(df37).join(df38).join(df39).join(df40).join(df41).join(df42).join(df43).join(df44).join(df45).join(df46).join(df47).join(df48).join(df49).join(df50).join(df51).join(df52).join(df53).join(df54).join(df55).join(df56).join(df57).join(df58).join(df59).join(df60).join(df61).join(df62).join(df63).join(df64).join(df65).join(df66).join(df67).join(df68).join(df69).join(df70).join(df71).join(df72).join(df73).join(df74).join(df75).join(df76).join(df77).join(df78).join(df79).join(df80).join(df81).join(df82).join(df83).join(df84).join(df85).join(df86).join(df87).join(df88).join(df89).join(df90).join(df91).join(df92).join(df93).join(df94).join(df95).join(df96).join(df97).join(df98).join(df99).join(df100).join(df101).join(df102).join(df103).join(df104).join(df105).join(df106).join(df107).join(df108).join(df109).join(df110).join(df111).join(df112).join(df113).join(df114).join(df115)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -8841,8 +9425,12 @@
         <f t="shared" si="0"/>
         <v>df4,</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>df4).join(</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -8850,8 +9438,12 @@
         <f t="shared" si="0"/>
         <v>df5,</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>df5).join(</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -8859,8 +9451,12 @@
         <f t="shared" si="0"/>
         <v>df6,</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>df6).join(</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -8868,8 +9464,12 @@
         <f t="shared" si="0"/>
         <v>df7,</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>df7).join(</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -8877,8 +9477,12 @@
         <f t="shared" si="0"/>
         <v>df8,</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>df8).join(</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -8886,8 +9490,12 @@
         <f t="shared" si="0"/>
         <v>df9,</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>df9).join(</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -8895,8 +9503,12 @@
         <f t="shared" si="0"/>
         <v>df10,</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>df10).join(</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -8904,8 +9516,12 @@
         <f t="shared" si="0"/>
         <v>df11,</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>df11).join(</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -8913,8 +9529,12 @@
         <f t="shared" si="0"/>
         <v>df12,</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>df12).join(</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -8922,8 +9542,12 @@
         <f t="shared" si="0"/>
         <v>df13,</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>df13).join(</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -8931,8 +9555,12 @@
         <f t="shared" si="0"/>
         <v>df14,</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>df14).join(</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -8940,8 +9568,12 @@
         <f t="shared" si="0"/>
         <v>df15,</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>df15).join(</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -8949,8 +9581,12 @@
         <f t="shared" si="0"/>
         <v>df16,</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>df16).join(</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -8958,8 +9594,12 @@
         <f t="shared" si="0"/>
         <v>df17,</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>df17).join(</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -8967,8 +9607,12 @@
         <f t="shared" si="0"/>
         <v>df18,</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>df18).join(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>309</v>
       </c>
@@ -8976,8 +9620,12 @@
         <f t="shared" si="0"/>
         <v>df19,</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>df19).join(</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -8985,8 +9633,12 @@
         <f t="shared" si="0"/>
         <v>df20,</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>df20).join(</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -8994,8 +9646,12 @@
         <f t="shared" si="0"/>
         <v>df21,</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>df21).join(</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9003,8 +9659,12 @@
         <f t="shared" si="0"/>
         <v>df22,</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>df22).join(</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>313</v>
       </c>
@@ -9012,8 +9672,12 @@
         <f t="shared" si="0"/>
         <v>df23,</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>df23).join(</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -9021,8 +9685,12 @@
         <f t="shared" si="0"/>
         <v>df24,</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>df24).join(</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -9030,8 +9698,12 @@
         <f t="shared" si="0"/>
         <v>df25,</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>df25).join(</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9039,8 +9711,12 @@
         <f t="shared" si="0"/>
         <v>df26,</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>df26).join(</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -9048,8 +9724,12 @@
         <f t="shared" si="0"/>
         <v>df27,</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>df27).join(</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -9057,8 +9737,12 @@
         <f t="shared" si="0"/>
         <v>df28,</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>df28).join(</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -9066,8 +9750,12 @@
         <f t="shared" si="0"/>
         <v>df29,</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>df29).join(</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -9075,8 +9763,12 @@
         <f t="shared" si="0"/>
         <v>df30,</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>df30).join(</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -9084,8 +9776,12 @@
         <f t="shared" si="0"/>
         <v>df31,</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>df31).join(</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -9093,8 +9789,12 @@
         <f t="shared" si="0"/>
         <v>df32,</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>df32).join(</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -9102,8 +9802,12 @@
         <f t="shared" si="0"/>
         <v>df33,</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>df33).join(</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -9111,8 +9815,12 @@
         <f t="shared" si="0"/>
         <v>df34,</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>df34).join(</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -9120,8 +9828,12 @@
         <f t="shared" si="0"/>
         <v>df35,</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>df35).join(</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -9129,8 +9841,12 @@
         <f t="shared" si="0"/>
         <v>df36,</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>df36).join(</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -9138,8 +9854,12 @@
         <f t="shared" si="0"/>
         <v>df37,</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>df37).join(</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -9147,8 +9867,12 @@
         <f t="shared" si="0"/>
         <v>df38,</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>df38).join(</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -9156,8 +9880,12 @@
         <f t="shared" si="0"/>
         <v>df39,</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>df39).join(</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -9165,8 +9893,12 @@
         <f t="shared" si="0"/>
         <v>df40,</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>df40).join(</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -9174,8 +9906,12 @@
         <f t="shared" si="0"/>
         <v>df41,</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>df41).join(</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -9183,8 +9919,12 @@
         <f t="shared" si="0"/>
         <v>df42,</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>df42).join(</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -9192,8 +9932,12 @@
         <f t="shared" si="0"/>
         <v>df43,</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>df43).join(</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>334</v>
       </c>
@@ -9201,8 +9945,12 @@
         <f t="shared" si="0"/>
         <v>df44,</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>df44).join(</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>335</v>
       </c>
@@ -9210,8 +9958,12 @@
         <f t="shared" si="0"/>
         <v>df45,</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>df45).join(</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -9219,8 +9971,12 @@
         <f t="shared" si="0"/>
         <v>df46,</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>df46).join(</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>337</v>
       </c>
@@ -9228,8 +9984,12 @@
         <f t="shared" si="0"/>
         <v>df47,</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>df47).join(</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -9237,8 +9997,12 @@
         <f t="shared" si="0"/>
         <v>df48,</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>df48).join(</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -9246,8 +10010,12 @@
         <f t="shared" si="0"/>
         <v>df49,</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>df49).join(</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -9255,8 +10023,12 @@
         <f t="shared" si="0"/>
         <v>df50,</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>df50).join(</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -9264,8 +10036,12 @@
         <f t="shared" si="0"/>
         <v>df51,</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>df51).join(</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -9273,8 +10049,12 @@
         <f t="shared" si="0"/>
         <v>df52,</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>df52).join(</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -9282,8 +10062,12 @@
         <f t="shared" si="0"/>
         <v>df53,</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>df53).join(</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>344</v>
       </c>
@@ -9291,8 +10075,12 @@
         <f t="shared" si="0"/>
         <v>df54,</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>df54).join(</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>345</v>
       </c>
@@ -9300,8 +10088,12 @@
         <f t="shared" si="0"/>
         <v>df55,</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>df55).join(</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>346</v>
       </c>
@@ -9309,8 +10101,12 @@
         <f t="shared" si="0"/>
         <v>df56,</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>df56).join(</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>347</v>
       </c>
@@ -9318,8 +10114,12 @@
         <f t="shared" si="0"/>
         <v>df57,</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>df57).join(</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>348</v>
       </c>
@@ -9327,8 +10127,12 @@
         <f t="shared" si="0"/>
         <v>df58,</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>df58).join(</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -9336,8 +10140,12 @@
         <f t="shared" si="0"/>
         <v>df59,</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>df59).join(</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>350</v>
       </c>
@@ -9345,8 +10153,12 @@
         <f t="shared" si="0"/>
         <v>df60,</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>df60).join(</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>351</v>
       </c>
@@ -9354,8 +10166,12 @@
         <f t="shared" si="0"/>
         <v>df61,</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>df61).join(</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>352</v>
       </c>
@@ -9363,8 +10179,12 @@
         <f t="shared" si="0"/>
         <v>df62,</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>df62).join(</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>353</v>
       </c>
@@ -9372,8 +10192,12 @@
         <f t="shared" si="0"/>
         <v>df63,</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>df63).join(</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -9381,8 +10205,12 @@
         <f t="shared" si="0"/>
         <v>df64,</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>df64).join(</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>355</v>
       </c>
@@ -9390,455 +10218,659 @@
         <f t="shared" si="0"/>
         <v>df65,</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>df65).join(</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>356</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="1">A66&amp;","</f>
+        <f t="shared" ref="B66:B115" si="2">A66&amp;","</f>
         <v>df66,</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>df66).join(</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>357</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df67,</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C114" si="3">A67&amp;").join("</f>
+        <v>df67).join(</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>358</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df68,</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>df68).join(</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>359</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df69,</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>df69).join(</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>360</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df70,</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>df70).join(</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>361</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df71,</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>df71).join(</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>362</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df72,</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>df72).join(</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>363</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df73,</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>df73).join(</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>364</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df74,</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>df74).join(</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>365</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df75,</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>df75).join(</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>366</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df76,</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>df76).join(</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>367</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df77,</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>df77).join(</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>368</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df78,</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>df78).join(</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>369</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df79,</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>df79).join(</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>370</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df80,</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>df80).join(</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>371</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df81,</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>df81).join(</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>372</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df82,</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>df82).join(</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>373</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df83,</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>df83).join(</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>374</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df84,</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>df84).join(</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>375</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df85,</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>df85).join(</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>376</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df86,</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>df86).join(</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>377</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df87,</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>df87).join(</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>378</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df88,</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>df88).join(</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>379</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df89,</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>df89).join(</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>380</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df90,</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>df90).join(</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>381</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df91,</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>df91).join(</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>382</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df92,</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v>df92).join(</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>383</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df93,</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>df93).join(</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>384</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df94,</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v>df94).join(</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>385</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df95,</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v>df95).join(</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>386</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df96,</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>df96).join(</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>387</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df97,</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>df97).join(</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>388</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df98,</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>df98).join(</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>389</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df99,</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>df99).join(</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>390</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df100,</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>df100).join(</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>391</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df101,</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>df101).join(</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>392</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df102,</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>df102).join(</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>393</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df103,</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>df103).join(</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>394</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df104,</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C104" t="str">
+        <f t="shared" si="3"/>
+        <v>df104).join(</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>395</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df105,</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v>df105).join(</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>396</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df106,</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>df106).join(</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>397</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df107,</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C107" t="str">
+        <f t="shared" si="3"/>
+        <v>df107).join(</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>398</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df108,</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C108" t="str">
+        <f t="shared" si="3"/>
+        <v>df108).join(</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>399</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df109,</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C109" t="str">
+        <f t="shared" si="3"/>
+        <v>df109).join(</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>400</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df110,</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C110" t="str">
+        <f t="shared" si="3"/>
+        <v>df110).join(</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>401</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df111,</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>df111).join(</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>402</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df112,</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>df112).join(</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>403</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df113,</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>df113).join(</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>404</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df114,</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>df114).join(</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>405</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>df115,</v>
+      </c>
+      <c r="C115" t="str">
+        <f>A115&amp;")"</f>
+        <v>df115)</v>
       </c>
     </row>
   </sheetData>

--- a/golfstats_FINAL_Excel.xlsx
+++ b/golfstats_FINAL_Excel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\repos\vu-virt-data-pt-12-2020-u-b\red-team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523C8146-3E5E-48B9-9AF3-ED98D42C3E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F1155-2728-43E5-94F6-2553207384F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3900" windowWidth="19440" windowHeight="15000" tabRatio="507" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="507" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="golfstats_FINAL_Excel" sheetId="1" r:id="rId1"/>
     <sheet name="jupyter_lists_joins" sheetId="2" r:id="rId2"/>
+    <sheet name="postgres_columns" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">golfstats_FINAL_Excel!$A$1:$Q$116</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="598">
   <si>
     <t>Year</t>
   </si>
@@ -1740,6 +1741,84 @@
   </si>
   <si>
     <t>Code_for_Rename</t>
+  </si>
+  <si>
+    <t>Final_Column</t>
+  </si>
+  <si>
+    <t>SG_off_tee_AVERAGE</t>
+  </si>
+  <si>
+    <t>SG_tee_green_AVERAGE</t>
+  </si>
+  <si>
+    <t>driving_dist_AVG.</t>
+  </si>
+  <si>
+    <t>pct_ydg_tee_AVG (%)</t>
+  </si>
+  <si>
+    <t>driving_320+_%</t>
+  </si>
+  <si>
+    <t>SG_approach_green_AVERAGE</t>
+  </si>
+  <si>
+    <t>GIR_pct_%</t>
+  </si>
+  <si>
+    <t>GOFIR_pct_%</t>
+  </si>
+  <si>
+    <t>GIR_pct_fwy_%</t>
+  </si>
+  <si>
+    <t>GIR_pct_not_fwy_%</t>
+  </si>
+  <si>
+    <t>fwy_prox_AVG</t>
+  </si>
+  <si>
+    <t>rough_prox_AVG</t>
+  </si>
+  <si>
+    <t>SG_ATG_AVERAGE</t>
+  </si>
+  <si>
+    <t>pct_sand_save_%</t>
+  </si>
+  <si>
+    <t>scrambling_%</t>
+  </si>
+  <si>
+    <t>SG_putt_AVERAGE</t>
+  </si>
+  <si>
+    <t>pct_one_putt_%</t>
+  </si>
+  <si>
+    <t>pct_three_putt_avoid_%</t>
+  </si>
+  <si>
+    <t>putt_avg_AVG</t>
+  </si>
+  <si>
+    <t>putts_per_rd_AVG</t>
+  </si>
+  <si>
+    <t>bogey_avoid_% MAKES BOGEY</t>
+  </si>
+  <si>
+    <t>btb_ratio_BIRDIE TO BOGEY RATIO</t>
+  </si>
+  <si>
+    <t>money_MONEY</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -2588,33 +2667,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="63.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="24.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="24.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="20.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.54296875" customWidth="1"/>
-    <col min="18" max="18" width="101.90625" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="24.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="24.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="20.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.5703125" customWidth="1"/>
+    <col min="18" max="18" width="101.85546875" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
@@ -2669,8 +2749,11 @@
       <c r="R1" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2725,8 +2808,11 @@
         <f>B2&amp;"="&amp;D2&amp;"[["&amp;"'"&amp;P2&amp;"']].rename(columns={'"&amp;P2&amp;"': '"&amp;Q2&amp;"'})"</f>
         <v>df1=dataframe_2021[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2021_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2787,8 +2873,11 @@
         <f t="shared" ref="R3:R66" si="5">B3&amp;"="&amp;D3&amp;"[["&amp;"'"&amp;P3&amp;"']].rename(columns={'"&amp;P3&amp;"': '"&amp;Q3&amp;"'})"</f>
         <v>df2=dataframe_2021[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2021_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2840,8 +2929,11 @@
         <f t="shared" si="5"/>
         <v>df3=dataframe_2021[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2021_AVG.'})</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2899,8 +2991,11 @@
         <f t="shared" si="5"/>
         <v>df4=dataframe_2021[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2021_AVG (%)'})</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2958,8 +3053,11 @@
         <f t="shared" si="5"/>
         <v>df5=dataframe_2021[4][['%']].rename(columns={'%': 'driving_320+_2021_%'})</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3014,8 +3112,11 @@
         <f t="shared" si="5"/>
         <v>df6=dataframe_2021[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2021_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3070,8 +3171,11 @@
         <f t="shared" si="5"/>
         <v>df7=dataframe_2021[6][['%']].rename(columns={'%': 'GIR_pct_2021_%'})</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3126,8 +3230,11 @@
         <f t="shared" si="5"/>
         <v>df8=dataframe_2021[7][['%']].rename(columns={'%': 'GOFIR_pct_2021_%'})</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3182,8 +3289,11 @@
         <f t="shared" si="5"/>
         <v>df9=dataframe_2021[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2021_%'})</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3238,8 +3348,11 @@
         <f t="shared" si="5"/>
         <v>df10=dataframe_2021[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2021_%'})</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3297,8 +3410,11 @@
         <f t="shared" si="5"/>
         <v>df11=dataframe_2021[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2021_AVG'})</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3359,8 +3475,11 @@
         <f t="shared" si="5"/>
         <v>df12=dataframe_2021[11][['AVG']].rename(columns={'AVG': 'rough_prox_2021_AVG'})</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3415,8 +3534,11 @@
         <f t="shared" si="5"/>
         <v>df13=dataframe_2021[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2021_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3474,8 +3596,11 @@
         <f t="shared" si="5"/>
         <v>df14=dataframe_2021[13][['%']].rename(columns={'%': 'pct_sand_save_2021_%'})</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3533,8 +3658,11 @@
         <f t="shared" si="5"/>
         <v>df15=dataframe_2021[14][['%']].rename(columns={'%': 'scrambling_2021_%'})</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3589,8 +3717,11 @@
         <f t="shared" si="5"/>
         <v>df16=dataframe_2021[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2021_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3648,8 +3779,11 @@
         <f t="shared" si="5"/>
         <v>df17=dataframe_2021[16][['%']].rename(columns={'%': 'pct_one_putt_2021_%'})</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3707,8 +3841,11 @@
         <f t="shared" si="5"/>
         <v>df18=dataframe_2021[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2021_%'})</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3769,8 +3906,11 @@
         <f t="shared" si="5"/>
         <v>df19=dataframe_2021[18][['AVG']].rename(columns={'AVG': 'putt_avg_2021_AVG'})</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3828,8 +3968,11 @@
         <f t="shared" si="5"/>
         <v>df20=dataframe_2021[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2021_AVG'})</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3887,8 +4030,11 @@
         <f t="shared" si="5"/>
         <v>df21=dataframe_2021[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2021_% MAKES BOGEY'})</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3946,8 +4092,11 @@
         <f t="shared" si="5"/>
         <v>df22=dataframe_2021[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2021_BIRDIE TO BOGEY RATIO'})</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4005,8 +4154,11 @@
         <f t="shared" si="5"/>
         <v>df23=dataframe_2021[22][['MONEY']].rename(columns={'MONEY': 'money_2021_MONEY'})</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4061,8 +4213,11 @@
         <f t="shared" si="5"/>
         <v>df24=dataframe_2020[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2020_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4123,8 +4278,11 @@
         <f t="shared" si="5"/>
         <v>df25=dataframe_2020[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2020_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4176,8 +4334,11 @@
         <f t="shared" si="5"/>
         <v>df26=dataframe_2020[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2020_AVG.'})</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4235,8 +4396,11 @@
         <f t="shared" si="5"/>
         <v>df27=dataframe_2020[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2020_AVG (%)'})</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4294,8 +4458,11 @@
         <f t="shared" si="5"/>
         <v>df28=dataframe_2020[4][['%']].rename(columns={'%': 'driving_320+_2020_%'})</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4350,8 +4517,11 @@
         <f t="shared" si="5"/>
         <v>df29=dataframe_2020[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2020_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4406,8 +4576,11 @@
         <f t="shared" si="5"/>
         <v>df30=dataframe_2020[6][['%']].rename(columns={'%': 'GIR_pct_2020_%'})</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4462,8 +4635,11 @@
         <f t="shared" si="5"/>
         <v>df31=dataframe_2020[7][['%']].rename(columns={'%': 'GOFIR_pct_2020_%'})</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4518,8 +4694,11 @@
         <f t="shared" si="5"/>
         <v>df32=dataframe_2020[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2020_%'})</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4574,8 +4753,11 @@
         <f t="shared" si="5"/>
         <v>df33=dataframe_2020[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2020_%'})</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4633,8 +4815,11 @@
         <f t="shared" si="5"/>
         <v>df34=dataframe_2020[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2020_AVG'})</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S35" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4695,8 +4880,11 @@
         <f t="shared" si="5"/>
         <v>df35=dataframe_2020[11][['AVG']].rename(columns={'AVG': 'rough_prox_2020_AVG'})</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S36" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4751,8 +4939,11 @@
         <f t="shared" si="5"/>
         <v>df36=dataframe_2020[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2020_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S37" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4810,8 +5001,11 @@
         <f t="shared" si="5"/>
         <v>df37=dataframe_2020[13][['%']].rename(columns={'%': 'pct_sand_save_2020_%'})</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S38" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4869,8 +5063,11 @@
         <f t="shared" si="5"/>
         <v>df38=dataframe_2020[14][['%']].rename(columns={'%': 'scrambling_2020_%'})</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S39" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4925,8 +5122,11 @@
         <f t="shared" si="5"/>
         <v>df39=dataframe_2020[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2020_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S40" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4984,8 +5184,11 @@
         <f t="shared" si="5"/>
         <v>df40=dataframe_2020[16][['%']].rename(columns={'%': 'pct_one_putt_2020_%'})</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S41" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5043,8 +5246,11 @@
         <f t="shared" si="5"/>
         <v>df41=dataframe_2020[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2020_%'})</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S42" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5105,8 +5311,11 @@
         <f t="shared" si="5"/>
         <v>df42=dataframe_2020[18][['AVG']].rename(columns={'AVG': 'putt_avg_2020_AVG'})</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S43" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5164,8 +5373,11 @@
         <f t="shared" si="5"/>
         <v>df43=dataframe_2020[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2020_AVG'})</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S44" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5223,8 +5435,11 @@
         <f t="shared" si="5"/>
         <v>df44=dataframe_2020[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2020_% MAKES BOGEY'})</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5282,8 +5497,11 @@
         <f t="shared" si="5"/>
         <v>df45=dataframe_2020[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2020_BIRDIE TO BOGEY RATIO'})</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S46" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5341,8 +5559,11 @@
         <f t="shared" si="5"/>
         <v>df46=dataframe_2020[22][['MONEY']].rename(columns={'MONEY': 'money_2020_MONEY'})</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S47" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5397,8 +5618,11 @@
         <f t="shared" si="5"/>
         <v>df47=dataframe_2019[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2019_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S48" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5459,8 +5683,11 @@
         <f t="shared" si="5"/>
         <v>df48=dataframe_2019[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2019_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S49" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5512,8 +5739,11 @@
         <f t="shared" si="5"/>
         <v>df49=dataframe_2019[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2019_AVG.'})</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5571,8 +5801,11 @@
         <f t="shared" si="5"/>
         <v>df50=dataframe_2019[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2019_AVG (%)'})</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S51" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5630,8 +5863,11 @@
         <f t="shared" si="5"/>
         <v>df51=dataframe_2019[4][['%']].rename(columns={'%': 'driving_320+_2019_%'})</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S52" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5686,8 +5922,11 @@
         <f t="shared" si="5"/>
         <v>df52=dataframe_2019[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2019_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S53" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5742,8 +5981,11 @@
         <f t="shared" si="5"/>
         <v>df53=dataframe_2019[6][['%']].rename(columns={'%': 'GIR_pct_2019_%'})</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5798,8 +6040,11 @@
         <f t="shared" si="5"/>
         <v>df54=dataframe_2019[7][['%']].rename(columns={'%': 'GOFIR_pct_2019_%'})</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S55" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5854,8 +6099,11 @@
         <f t="shared" si="5"/>
         <v>df55=dataframe_2019[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2019_%'})</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S56" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5910,8 +6158,11 @@
         <f t="shared" si="5"/>
         <v>df56=dataframe_2019[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2019_%'})</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S57" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5969,8 +6220,11 @@
         <f t="shared" si="5"/>
         <v>df57=dataframe_2019[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2019_AVG'})</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S58" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6031,8 +6285,11 @@
         <f t="shared" si="5"/>
         <v>df58=dataframe_2019[11][['AVG']].rename(columns={'AVG': 'rough_prox_2019_AVG'})</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6087,8 +6344,11 @@
         <f t="shared" si="5"/>
         <v>df59=dataframe_2019[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2019_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S60" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6146,8 +6406,11 @@
         <f t="shared" si="5"/>
         <v>df60=dataframe_2019[13][['%']].rename(columns={'%': 'pct_sand_save_2019_%'})</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S61" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6205,8 +6468,11 @@
         <f t="shared" si="5"/>
         <v>df61=dataframe_2019[14][['%']].rename(columns={'%': 'scrambling_2019_%'})</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S62" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6261,8 +6527,11 @@
         <f t="shared" si="5"/>
         <v>df62=dataframe_2019[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2019_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S63" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6320,8 +6589,11 @@
         <f t="shared" si="5"/>
         <v>df63=dataframe_2019[16][['%']].rename(columns={'%': 'pct_one_putt_2019_%'})</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S64" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6379,8 +6651,11 @@
         <f t="shared" si="5"/>
         <v>df64=dataframe_2019[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2019_%'})</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S65" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6441,8 +6716,11 @@
         <f t="shared" si="5"/>
         <v>df65=dataframe_2019[18][['AVG']].rename(columns={'AVG': 'putt_avg_2019_AVG'})</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S66" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6489,7 +6767,7 @@
         <v>443</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P116" si="11">L67</f>
+        <f t="shared" ref="P67:P115" si="11">L67</f>
         <v>AVG</v>
       </c>
       <c r="Q67" t="str">
@@ -6500,8 +6778,11 @@
         <f t="shared" ref="R67:R116" si="12">B67&amp;"="&amp;D67&amp;"[["&amp;"'"&amp;P67&amp;"']].rename(columns={'"&amp;P67&amp;"': '"&amp;Q67&amp;"'})"</f>
         <v>df66=dataframe_2019[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2019_AVG'})</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S67" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6559,8 +6840,11 @@
         <f t="shared" si="12"/>
         <v>df67=dataframe_2019[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2019_% MAKES BOGEY'})</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S68" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6618,8 +6902,11 @@
         <f t="shared" si="12"/>
         <v>df68=dataframe_2019[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2019_BIRDIE TO BOGEY RATIO'})</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S69" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6677,8 +6964,11 @@
         <f t="shared" si="12"/>
         <v>df69=dataframe_2019[22][['MONEY']].rename(columns={'MONEY': 'money_2019_MONEY'})</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S70" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6733,8 +7023,11 @@
         <f t="shared" si="12"/>
         <v>df70=dataframe_2018[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2018_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6795,8 +7088,11 @@
         <f t="shared" si="12"/>
         <v>df71=dataframe_2018[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2018_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S72" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6848,8 +7144,11 @@
         <f t="shared" si="12"/>
         <v>df72=dataframe_2018[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2018_AVG.'})</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6907,8 +7206,11 @@
         <f t="shared" si="12"/>
         <v>df73=dataframe_2018[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2018_AVG (%)'})</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S74" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6966,8 +7268,11 @@
         <f t="shared" si="12"/>
         <v>df74=dataframe_2018[4][['%']].rename(columns={'%': 'driving_320+_2018_%'})</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S75" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7022,8 +7327,11 @@
         <f t="shared" si="12"/>
         <v>df75=dataframe_2018[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2018_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7078,8 +7386,11 @@
         <f t="shared" si="12"/>
         <v>df76=dataframe_2018[6][['%']].rename(columns={'%': 'GIR_pct_2018_%'})</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S77" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7134,8 +7445,11 @@
         <f t="shared" si="12"/>
         <v>df77=dataframe_2018[7][['%']].rename(columns={'%': 'GOFIR_pct_2018_%'})</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S78" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7190,8 +7504,11 @@
         <f t="shared" si="12"/>
         <v>df78=dataframe_2018[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2018_%'})</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S79" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7246,8 +7563,11 @@
         <f t="shared" si="12"/>
         <v>df79=dataframe_2018[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2018_%'})</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7305,8 +7625,11 @@
         <f t="shared" si="12"/>
         <v>df80=dataframe_2018[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2018_AVG'})</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S81" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7367,8 +7690,11 @@
         <f t="shared" si="12"/>
         <v>df81=dataframe_2018[11][['AVG']].rename(columns={'AVG': 'rough_prox_2018_AVG'})</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S82" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7423,8 +7749,11 @@
         <f t="shared" si="12"/>
         <v>df82=dataframe_2018[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2018_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S83" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7482,8 +7811,11 @@
         <f t="shared" si="12"/>
         <v>df83=dataframe_2018[13][['%']].rename(columns={'%': 'pct_sand_save_2018_%'})</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S84" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7541,8 +7873,11 @@
         <f t="shared" si="12"/>
         <v>df84=dataframe_2018[14][['%']].rename(columns={'%': 'scrambling_2018_%'})</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S85" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7597,8 +7932,11 @@
         <f t="shared" si="12"/>
         <v>df85=dataframe_2018[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2018_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S86" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7656,8 +7994,11 @@
         <f t="shared" si="12"/>
         <v>df86=dataframe_2018[16][['%']].rename(columns={'%': 'pct_one_putt_2018_%'})</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S87" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7715,8 +8056,11 @@
         <f t="shared" si="12"/>
         <v>df87=dataframe_2018[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2018_%'})</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S88" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7777,8 +8121,11 @@
         <f t="shared" si="12"/>
         <v>df88=dataframe_2018[18][['AVG']].rename(columns={'AVG': 'putt_avg_2018_AVG'})</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S89" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7836,8 +8183,11 @@
         <f t="shared" si="12"/>
         <v>df89=dataframe_2018[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2018_AVG'})</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S90" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7895,8 +8245,11 @@
         <f t="shared" si="12"/>
         <v>df90=dataframe_2018[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2018_% MAKES BOGEY'})</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7954,8 +8307,11 @@
         <f t="shared" si="12"/>
         <v>df91=dataframe_2018[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2018_BIRDIE TO BOGEY RATIO'})</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S92" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8013,8 +8369,11 @@
         <f t="shared" si="12"/>
         <v>df92=dataframe_2018[22][['MONEY']].rename(columns={'MONEY': 'money_2018_MONEY'})</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S93" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8069,8 +8428,11 @@
         <f t="shared" si="12"/>
         <v>df93=dataframe_2017[0][['AVERAGE']].rename(columns={'AVERAGE': 'SG_off_tee_2017_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S94" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8131,8 +8493,11 @@
         <f t="shared" si="12"/>
         <v>df94=dataframe_2017[1][['AVERAGE']].rename(columns={'AVERAGE': 'SG_tee_green_2017_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S95" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8184,8 +8549,11 @@
         <f t="shared" si="12"/>
         <v>df95=dataframe_2017[2][['AVG.']].rename(columns={'AVG.': 'driving_dist_2017_AVG.'})</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S96" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8243,13 +8611,16 @@
         <f t="shared" si="12"/>
         <v>df96=dataframe_2017[3][['AVG (%)']].rename(columns={'AVG (%)': 'pct_ydg_tee_2017_AVG (%)'})</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S97" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" ref="B98:B129" si="14">"df"&amp;A98</f>
+        <f t="shared" ref="B98:B116" si="14">"df"&amp;A98</f>
         <v>df97</v>
       </c>
       <c r="C98" t="str">
@@ -8302,8 +8673,11 @@
         <f t="shared" si="12"/>
         <v>df97=dataframe_2017[4][['%']].rename(columns={'%': 'driving_320+_2017_%'})</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S98" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8358,8 +8732,11 @@
         <f t="shared" si="12"/>
         <v>df98=dataframe_2017[5][['AVERAGE']].rename(columns={'AVERAGE': 'SG_approach_green_2017_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S99" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8414,8 +8791,11 @@
         <f t="shared" si="12"/>
         <v>df99=dataframe_2017[6][['%']].rename(columns={'%': 'GIR_pct_2017_%'})</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S100" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8470,8 +8850,11 @@
         <f t="shared" si="12"/>
         <v>df100=dataframe_2017[7][['%']].rename(columns={'%': 'GOFIR_pct_2017_%'})</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S101" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8526,8 +8909,11 @@
         <f t="shared" si="12"/>
         <v>df101=dataframe_2017[8][['%']].rename(columns={'%': 'GIR_pct_fwy_2017_%'})</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S102" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8582,8 +8968,11 @@
         <f t="shared" si="12"/>
         <v>df102=dataframe_2017[9][['%']].rename(columns={'%': 'GIR_pct_not_fwy_2017_%'})</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S103" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8641,8 +9030,11 @@
         <f t="shared" si="12"/>
         <v>df103=dataframe_2017[10][['AVG']].rename(columns={'AVG': 'fwy_prox_2017_AVG'})</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S104" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8703,8 +9095,11 @@
         <f t="shared" si="12"/>
         <v>df104=dataframe_2017[11][['AVG']].rename(columns={'AVG': 'rough_prox_2017_AVG'})</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S105" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8759,8 +9154,11 @@
         <f t="shared" si="12"/>
         <v>df105=dataframe_2017[12][['AVERAGE']].rename(columns={'AVERAGE': 'SG_ATG_2017_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S106" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8818,8 +9216,11 @@
         <f t="shared" si="12"/>
         <v>df106=dataframe_2017[13][['%']].rename(columns={'%': 'pct_sand_save_2017_%'})</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S107" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8877,8 +9278,11 @@
         <f t="shared" si="12"/>
         <v>df107=dataframe_2017[14][['%']].rename(columns={'%': 'scrambling_2017_%'})</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S108" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8933,8 +9337,11 @@
         <f t="shared" si="12"/>
         <v>df108=dataframe_2017[15][['AVERAGE']].rename(columns={'AVERAGE': 'SG_putt_2017_AVERAGE'})</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S109" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8992,8 +9399,11 @@
         <f t="shared" si="12"/>
         <v>df109=dataframe_2017[16][['%']].rename(columns={'%': 'pct_one_putt_2017_%'})</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S110" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9051,8 +9461,11 @@
         <f t="shared" si="12"/>
         <v>df110=dataframe_2017[17][['%']].rename(columns={'%': 'pct_three_putt_avoid_2017_%'})</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S111" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9113,8 +9526,11 @@
         <f t="shared" si="12"/>
         <v>df111=dataframe_2017[18][['AVG']].rename(columns={'AVG': 'putt_avg_2017_AVG'})</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S112" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9172,8 +9588,11 @@
         <f t="shared" si="12"/>
         <v>df112=dataframe_2017[19][['AVG']].rename(columns={'AVG': 'putts_per_rd_2017_AVG'})</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S113" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9231,8 +9650,11 @@
         <f t="shared" si="12"/>
         <v>df113=dataframe_2017[20][['% MAKES BOGEY']].rename(columns={'% MAKES BOGEY': 'bogey_avoid_2017_% MAKES BOGEY'})</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S114" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9290,8 +9712,11 @@
         <f t="shared" si="12"/>
         <v>df114=dataframe_2017[21][['BIRDIE TO BOGEY RATIO']].rename(columns={'BIRDIE TO BOGEY RATIO': 'btb_ratio_2017_BIRDIE TO BOGEY RATIO'})</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S115" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9342,12 +9767,15 @@
         <v>MONEY</v>
       </c>
       <c r="Q116" t="str">
-        <f t="shared" ref="Q91:Q116" si="16">I116&amp;"_"&amp;P116</f>
+        <f t="shared" ref="Q116" si="16">I116&amp;"_"&amp;P116</f>
         <v>money_2017_MONEY</v>
       </c>
       <c r="R116" t="str">
         <f t="shared" si="12"/>
         <v>df115=dataframe_2017[22][['MONEY']].rename(columns={'MONEY': 'money_2017_MONEY'})</v>
+      </c>
+      <c r="S116" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -9365,12 +9793,12 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -9383,7 +9811,7 @@
         <v>df1.join(</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -9400,7 +9828,7 @@
         <v>df1,df2,df3,df4,df5,df6,df7,df8,df9,df10,df11,df12,df13,df14,df15,df16,df17,df18,df19,df20,df21,df22,df23,df24,df25,df26,df27,df28,df29,df30,df31,df32,df33,df34,df35,df36,df37,df38,df39,df40,df41,df42,df43,df44,df45,df46,df47,df48,df49,df50,df51,df52,df53,df54,df55,df56,df57,df58,df59,df60,df61,df62,df63,df64,df65,df66,df67,df68,df69,df70,df71,df72,df73,df74,df75,df76,df77,df78,df79,df80,df81,df82,df83,df84,df85,df86,df87,df88,df89,df90,df91,df92,df93,df94,df95,df96,df97,df98,df99,df100,df101,df102,df103,df104,df105,df106,df107,df108,df109,df110,df111,df112,df113,df114,df115,</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -9417,7 +9845,7 @@
         <v>df1.join(df2).join(df3).join(df4).join(df5).join(df6).join(df7).join(df8).join(df9).join(df10).join(df11).join(df12).join(df13).join(df14).join(df15).join(df16).join(df17).join(df18).join(df19).join(df20).join(df21).join(df22).join(df23).join(df24).join(df25).join(df26).join(df27).join(df28).join(df29).join(df30).join(df31).join(df32).join(df33).join(df34).join(df35).join(df36).join(df37).join(df38).join(df39).join(df40).join(df41).join(df42).join(df43).join(df44).join(df45).join(df46).join(df47).join(df48).join(df49).join(df50).join(df51).join(df52).join(df53).join(df54).join(df55).join(df56).join(df57).join(df58).join(df59).join(df60).join(df61).join(df62).join(df63).join(df64).join(df65).join(df66).join(df67).join(df68).join(df69).join(df70).join(df71).join(df72).join(df73).join(df74).join(df75).join(df76).join(df77).join(df78).join(df79).join(df80).join(df81).join(df82).join(df83).join(df84).join(df85).join(df86).join(df87).join(df88).join(df89).join(df90).join(df91).join(df92).join(df93).join(df94).join(df95).join(df96).join(df97).join(df98).join(df99).join(df100).join(df101).join(df102).join(df103).join(df104).join(df105).join(df106).join(df107).join(df108).join(df109).join(df110).join(df111).join(df112).join(df113).join(df114).join(df115)</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -9430,7 +9858,7 @@
         <v>df4).join(</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -9443,7 +9871,7 @@
         <v>df5).join(</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -9456,7 +9884,7 @@
         <v>df6).join(</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -9469,7 +9897,7 @@
         <v>df7).join(</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -9482,7 +9910,7 @@
         <v>df8).join(</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -9495,7 +9923,7 @@
         <v>df9).join(</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -9508,7 +9936,7 @@
         <v>df10).join(</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -9521,7 +9949,7 @@
         <v>df11).join(</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -9534,7 +9962,7 @@
         <v>df12).join(</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9547,7 +9975,7 @@
         <v>df13).join(</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -9560,7 +9988,7 @@
         <v>df14).join(</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -9573,7 +10001,7 @@
         <v>df15).join(</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -9586,7 +10014,7 @@
         <v>df16).join(</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -9599,7 +10027,7 @@
         <v>df17).join(</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -9612,7 +10040,7 @@
         <v>df18).join(</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>309</v>
       </c>
@@ -9625,7 +10053,7 @@
         <v>df19).join(</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -9638,7 +10066,7 @@
         <v>df20).join(</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -9651,7 +10079,7 @@
         <v>df21).join(</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9664,7 +10092,7 @@
         <v>df22).join(</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>313</v>
       </c>
@@ -9677,7 +10105,7 @@
         <v>df23).join(</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -9690,7 +10118,7 @@
         <v>df24).join(</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -9703,7 +10131,7 @@
         <v>df25).join(</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9716,7 +10144,7 @@
         <v>df26).join(</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -9729,7 +10157,7 @@
         <v>df27).join(</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -9742,7 +10170,7 @@
         <v>df28).join(</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -9755,7 +10183,7 @@
         <v>df29).join(</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -9768,7 +10196,7 @@
         <v>df30).join(</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -9781,7 +10209,7 @@
         <v>df31).join(</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -9794,7 +10222,7 @@
         <v>df32).join(</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -9807,7 +10235,7 @@
         <v>df33).join(</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -9820,7 +10248,7 @@
         <v>df34).join(</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -9833,7 +10261,7 @@
         <v>df35).join(</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -9846,7 +10274,7 @@
         <v>df36).join(</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -9859,7 +10287,7 @@
         <v>df37).join(</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -9872,7 +10300,7 @@
         <v>df38).join(</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -9885,7 +10313,7 @@
         <v>df39).join(</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -9898,7 +10326,7 @@
         <v>df40).join(</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -9911,7 +10339,7 @@
         <v>df41).join(</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -9924,7 +10352,7 @@
         <v>df42).join(</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -9937,7 +10365,7 @@
         <v>df43).join(</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>334</v>
       </c>
@@ -9950,7 +10378,7 @@
         <v>df44).join(</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>335</v>
       </c>
@@ -9963,7 +10391,7 @@
         <v>df45).join(</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -9976,7 +10404,7 @@
         <v>df46).join(</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>337</v>
       </c>
@@ -9989,7 +10417,7 @@
         <v>df47).join(</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -10002,7 +10430,7 @@
         <v>df48).join(</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -10015,7 +10443,7 @@
         <v>df49).join(</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -10028,7 +10456,7 @@
         <v>df50).join(</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -10041,7 +10469,7 @@
         <v>df51).join(</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -10054,7 +10482,7 @@
         <v>df52).join(</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -10067,7 +10495,7 @@
         <v>df53).join(</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>344</v>
       </c>
@@ -10080,7 +10508,7 @@
         <v>df54).join(</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>345</v>
       </c>
@@ -10093,7 +10521,7 @@
         <v>df55).join(</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>346</v>
       </c>
@@ -10106,7 +10534,7 @@
         <v>df56).join(</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>347</v>
       </c>
@@ -10119,7 +10547,7 @@
         <v>df57).join(</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>348</v>
       </c>
@@ -10132,7 +10560,7 @@
         <v>df58).join(</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -10145,7 +10573,7 @@
         <v>df59).join(</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>350</v>
       </c>
@@ -10158,7 +10586,7 @@
         <v>df60).join(</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>351</v>
       </c>
@@ -10171,7 +10599,7 @@
         <v>df61).join(</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>352</v>
       </c>
@@ -10184,7 +10612,7 @@
         <v>df62).join(</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>353</v>
       </c>
@@ -10197,7 +10625,7 @@
         <v>df63).join(</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -10210,7 +10638,7 @@
         <v>df64).join(</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>355</v>
       </c>
@@ -10223,7 +10651,7 @@
         <v>df65).join(</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>356</v>
       </c>
@@ -10236,7 +10664,7 @@
         <v>df66).join(</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>357</v>
       </c>
@@ -10249,7 +10677,7 @@
         <v>df67).join(</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>358</v>
       </c>
@@ -10262,7 +10690,7 @@
         <v>df68).join(</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>359</v>
       </c>
@@ -10275,7 +10703,7 @@
         <v>df69).join(</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>360</v>
       </c>
@@ -10288,7 +10716,7 @@
         <v>df70).join(</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>361</v>
       </c>
@@ -10301,7 +10729,7 @@
         <v>df71).join(</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>362</v>
       </c>
@@ -10314,7 +10742,7 @@
         <v>df72).join(</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>363</v>
       </c>
@@ -10327,7 +10755,7 @@
         <v>df73).join(</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -10340,7 +10768,7 @@
         <v>df74).join(</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>365</v>
       </c>
@@ -10353,7 +10781,7 @@
         <v>df75).join(</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>366</v>
       </c>
@@ -10366,7 +10794,7 @@
         <v>df76).join(</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>367</v>
       </c>
@@ -10379,7 +10807,7 @@
         <v>df77).join(</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10392,7 +10820,7 @@
         <v>df78).join(</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>369</v>
       </c>
@@ -10405,7 +10833,7 @@
         <v>df79).join(</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>370</v>
       </c>
@@ -10418,7 +10846,7 @@
         <v>df80).join(</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>371</v>
       </c>
@@ -10431,7 +10859,7 @@
         <v>df81).join(</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>372</v>
       </c>
@@ -10444,7 +10872,7 @@
         <v>df82).join(</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>373</v>
       </c>
@@ -10457,7 +10885,7 @@
         <v>df83).join(</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>374</v>
       </c>
@@ -10470,7 +10898,7 @@
         <v>df84).join(</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>375</v>
       </c>
@@ -10483,7 +10911,7 @@
         <v>df85).join(</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>376</v>
       </c>
@@ -10496,7 +10924,7 @@
         <v>df86).join(</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>377</v>
       </c>
@@ -10509,7 +10937,7 @@
         <v>df87).join(</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>378</v>
       </c>
@@ -10522,7 +10950,7 @@
         <v>df88).join(</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>379</v>
       </c>
@@ -10535,7 +10963,7 @@
         <v>df89).join(</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>380</v>
       </c>
@@ -10548,7 +10976,7 @@
         <v>df90).join(</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>381</v>
       </c>
@@ -10561,7 +10989,7 @@
         <v>df91).join(</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>382</v>
       </c>
@@ -10574,7 +11002,7 @@
         <v>df92).join(</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>383</v>
       </c>
@@ -10587,7 +11015,7 @@
         <v>df93).join(</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>384</v>
       </c>
@@ -10600,7 +11028,7 @@
         <v>df94).join(</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>385</v>
       </c>
@@ -10613,7 +11041,7 @@
         <v>df95).join(</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>386</v>
       </c>
@@ -10626,7 +11054,7 @@
         <v>df96).join(</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>387</v>
       </c>
@@ -10639,7 +11067,7 @@
         <v>df97).join(</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>388</v>
       </c>
@@ -10652,7 +11080,7 @@
         <v>df98).join(</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>389</v>
       </c>
@@ -10665,7 +11093,7 @@
         <v>df99).join(</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>390</v>
       </c>
@@ -10678,7 +11106,7 @@
         <v>df100).join(</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>391</v>
       </c>
@@ -10691,7 +11119,7 @@
         <v>df101).join(</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>392</v>
       </c>
@@ -10704,7 +11132,7 @@
         <v>df102).join(</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>393</v>
       </c>
@@ -10717,7 +11145,7 @@
         <v>df103).join(</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>394</v>
       </c>
@@ -10730,7 +11158,7 @@
         <v>df104).join(</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>395</v>
       </c>
@@ -10743,7 +11171,7 @@
         <v>df105).join(</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>396</v>
       </c>
@@ -10756,7 +11184,7 @@
         <v>df106).join(</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>397</v>
       </c>
@@ -10769,7 +11197,7 @@
         <v>df107).join(</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>398</v>
       </c>
@@ -10782,7 +11210,7 @@
         <v>df108).join(</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>399</v>
       </c>
@@ -10795,7 +11223,7 @@
         <v>df109).join(</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>400</v>
       </c>
@@ -10808,7 +11236,7 @@
         <v>df110).join(</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>401</v>
       </c>
@@ -10821,7 +11249,7 @@
         <v>df111).join(</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>402</v>
       </c>
@@ -10834,7 +11262,7 @@
         <v>df112).join(</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>403</v>
       </c>
@@ -10847,7 +11275,7 @@
         <v>df113).join(</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>404</v>
       </c>
@@ -10860,7 +11288,7 @@
         <v>df114).join(</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>405</v>
       </c>
@@ -10871,6 +11299,310 @@
       <c r="C115" t="str">
         <f>A115&amp;")"</f>
         <v>df115)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F7DC72-767D-4C6F-99B2-8A7720CA3140}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" t="str">
+        <f>""&amp;A1&amp;" "&amp;B1&amp;","</f>
+        <v>SG_off_tee_AVERAGE real,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C24" si="0">""&amp;A2&amp;" "&amp;B2&amp;","</f>
+        <v>SG_tee_green_AVERAGE real,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>driving_dist_AVG. real,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>pct_ydg_tee_AVG (%) real,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>driving_320+_% real,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>SG_approach_green_AVERAGE real,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>GIR_pct_% real,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>GOFIR_pct_% real,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>GIR_pct_fwy_% real,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>GIR_pct_not_fwy_% real,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>fwy_prox_AVG real,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>rough_prox_AVG real,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>SG_ATG_AVERAGE real,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>pct_sand_save_% real,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>scrambling_% real,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>SG_putt_AVERAGE real,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>589</v>
+      </c>
+      <c r="B17" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>pct_one_putt_% real,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B18" t="s">
+        <v>596</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>pct_three_putt_avoid_% real,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" t="s">
+        <v>596</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>putt_avg_AVG real,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" t="s">
+        <v>596</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>putts_per_rd_AVG real,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" t="s">
+        <v>596</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>bogey_avoid_% MAKES BOGEY real,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>594</v>
+      </c>
+      <c r="B22" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>btb_ratio_BIRDIE TO BOGEY RATIO real,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>money_MONEY real,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>597</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Year integer,</v>
       </c>
     </row>
   </sheetData>
